--- a/raw_data/20200818_saline/20200818_Sensor0_Test_30.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_30.xlsx
@@ -1,2322 +1,2738 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BE6857-18D0-4BB6-AE19-E5859F4EF3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>26102.890821</v>
+        <v>26102.890821000001</v>
       </c>
       <c r="B2" s="1">
-        <v>7.250803</v>
+        <v>7.2508030000000003</v>
       </c>
       <c r="C2" s="1">
-        <v>903.731000</v>
+        <v>903.73099999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.916000</v>
+        <v>-197.916</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>26113.316682</v>
+        <v>26113.316682000001</v>
       </c>
       <c r="G2" s="1">
-        <v>7.253699</v>
+        <v>7.2536990000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>920.878000</v>
+        <v>920.87800000000004</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.925000</v>
+        <v>-167.92500000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>26123.739084</v>
+        <v>26123.739084000001</v>
       </c>
       <c r="L2" s="1">
-        <v>7.256594</v>
+        <v>7.2565939999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>943.155000</v>
+        <v>943.15499999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.945000</v>
+        <v>-119.94499999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>26134.563806</v>
+        <v>26134.563805999998</v>
       </c>
       <c r="Q2" s="1">
         <v>7.259601</v>
       </c>
       <c r="R2" s="1">
-        <v>949.589000</v>
+        <v>949.58900000000006</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.422000</v>
+        <v>-104.422</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>26145.105249</v>
       </c>
       <c r="V2" s="1">
-        <v>7.262529</v>
+        <v>7.2625289999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>955.907000</v>
+        <v>955.90700000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.442700</v>
+        <v>-90.442700000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>26155.567396</v>
+        <v>26155.567395999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>7.265435</v>
+        <v>7.2654350000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>963.037000</v>
+        <v>963.03700000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.592800</v>
+        <v>-80.592799999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>26166.116806</v>
+        <v>26166.116806000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>7.268366</v>
+        <v>7.2683660000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>968.000000</v>
+        <v>968</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.042300</v>
+        <v>-80.042299999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>26176.527799</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.271258</v>
+        <v>7.2712580000000004</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.863000</v>
+        <v>975.86300000000006</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.620500</v>
+        <v>-87.620500000000007</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>26187.107994</v>
+        <v>26187.107994000002</v>
       </c>
       <c r="AP2" s="1">
         <v>7.274197</v>
       </c>
       <c r="AQ2" s="1">
-        <v>985.020000</v>
+        <v>985.02</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.420000</v>
+        <v>-102.42</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>26198.461385</v>
+        <v>26198.461384999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>7.277350</v>
+        <v>7.2773500000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.348000</v>
+        <v>996.34799999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.855000</v>
+        <v>-123.855</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>26209.020716</v>
+        <v>26209.020715999999</v>
       </c>
       <c r="AZ2" s="1">
         <v>7.280284</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.940000</v>
+        <v>1005.94</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.534000</v>
+        <v>-142.53399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>26219.680466</v>
+        <v>26219.680466000002</v>
       </c>
       <c r="BE2" s="1">
         <v>7.283245</v>
       </c>
       <c r="BF2" s="1">
-        <v>1051.050000</v>
+        <v>1051.05</v>
       </c>
       <c r="BG2" s="1">
-        <v>-227.098000</v>
+        <v>-227.09800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>26230.310993</v>
+        <v>26230.310992999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.286197</v>
+        <v>7.2861969999999996</v>
       </c>
       <c r="BK2" s="1">
-        <v>1130.330000</v>
+        <v>1130.33</v>
       </c>
       <c r="BL2" s="1">
-        <v>-362.878000</v>
+        <v>-362.87799999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>26241.014658</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.289171</v>
+        <v>7.2891709999999996</v>
       </c>
       <c r="BP2" s="1">
-        <v>1261.560000</v>
+        <v>1261.56</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-572.624000</v>
+        <v>-572.62400000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>26251.747587</v>
+        <v>26251.747587000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.292152</v>
+        <v>7.2921519999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1409.030000</v>
+        <v>1409.03</v>
       </c>
       <c r="BV2" s="1">
-        <v>-796.287000</v>
+        <v>-796.28700000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>26262.440838</v>
+        <v>26262.440837999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>7.295122</v>
+        <v>7.2951220000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1570.760000</v>
+        <v>1570.76</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1030.150000</v>
+        <v>-1030.1500000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>26273.704982</v>
+        <v>26273.704981999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.298251</v>
+        <v>7.2982509999999996</v>
       </c>
       <c r="CE2" s="1">
-        <v>1979.800000</v>
+        <v>1979.8</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1576.280000</v>
+        <v>-1576.28</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>26103.293026</v>
+        <v>26103.293025999999</v>
       </c>
       <c r="B3" s="1">
         <v>7.250915</v>
       </c>
       <c r="C3" s="1">
-        <v>903.675000</v>
+        <v>903.67499999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.823000</v>
+        <v>-197.82300000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>26113.660379</v>
+        <v>26113.660379000001</v>
       </c>
       <c r="G3" s="1">
-        <v>7.253795</v>
+        <v>7.2537950000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>920.990000</v>
+        <v>920.99</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.949000</v>
+        <v>-167.94900000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>26124.459313</v>
+        <v>26124.459312999999</v>
       </c>
       <c r="L3" s="1">
-        <v>7.256794</v>
+        <v>7.2567940000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>942.913000</v>
+        <v>942.91300000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.996000</v>
+        <v>-119.996</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>26134.945230</v>
+        <v>26134.945230000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.259707</v>
+        <v>7.2597069999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>949.534000</v>
+        <v>949.53399999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.441000</v>
+        <v>-104.441</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>26145.484223</v>
+        <v>26145.484222999999</v>
       </c>
       <c r="V3" s="1">
-        <v>7.262635</v>
+        <v>7.2626350000000004</v>
       </c>
       <c r="W3" s="1">
-        <v>955.939000</v>
+        <v>955.93899999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.385800</v>
+        <v>-90.385800000000003</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>26155.925997</v>
+        <v>26155.925996999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>7.265535</v>
+        <v>7.2655349999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>963.150000</v>
+        <v>963.15</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.578000</v>
+        <v>-80.578000000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>26166.481343</v>
+        <v>26166.481342999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.268467</v>
+        <v>7.2684670000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.950000</v>
+        <v>967.95</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.014500</v>
+        <v>-80.014499999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>26177.216247</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.271449</v>
+        <v>7.2714489999999996</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.863000</v>
+        <v>975.86300000000006</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.612900</v>
+        <v>-87.612899999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>26187.815752</v>
+        <v>26187.815751999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.274393</v>
+        <v>7.2743929999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>985.027000</v>
+        <v>985.02700000000004</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.415000</v>
+        <v>-102.41500000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>26198.580427</v>
+        <v>26198.580427000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.277383</v>
+        <v>7.2773830000000004</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.348000</v>
+        <v>996.34799999999996</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.847000</v>
+        <v>-123.84699999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>26209.378827</v>
       </c>
       <c r="AZ3" s="1">
-        <v>7.280383</v>
+        <v>7.2803829999999996</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.910000</v>
+        <v>1005.91</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.527000</v>
+        <v>-142.52699999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>26220.044829</v>
+        <v>26220.044828999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>7.283346</v>
+        <v>7.2833459999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1051.050000</v>
+        <v>1051.05</v>
       </c>
       <c r="BG3" s="1">
-        <v>-227.107000</v>
+        <v>-227.107</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>26230.703823</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.286307</v>
+        <v>7.2863069999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1130.300000</v>
+        <v>1130.3</v>
       </c>
       <c r="BL3" s="1">
-        <v>-362.880000</v>
+        <v>-362.88</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>26241.420385</v>
+        <v>26241.420385000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.289283</v>
+        <v>7.2892830000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1261.560000</v>
+        <v>1261.56</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-572.590000</v>
+        <v>-572.59</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>26252.199938</v>
+        <v>26252.199938000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>7.292278</v>
+        <v>7.2922779999999996</v>
       </c>
       <c r="BU3" s="1">
-        <v>1409.160000</v>
+        <v>1409.16</v>
       </c>
       <c r="BV3" s="1">
-        <v>-796.279000</v>
+        <v>-796.279</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>26262.923978</v>
+        <v>26262.923977999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.295257</v>
+        <v>7.2952570000000003</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1570.870000</v>
+        <v>1570.87</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1030.200000</v>
+        <v>-1030.2</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>26273.969382</v>
+        <v>26273.969381999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.298325</v>
+        <v>7.2983250000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1979.720000</v>
+        <v>1979.72</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1575.950000</v>
+        <v>-1575.95</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>26103.976023</v>
+        <v>26103.976022999999</v>
       </c>
       <c r="B4" s="1">
-        <v>7.251104</v>
+        <v>7.2511039999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>903.604000</v>
+        <v>903.60400000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.931000</v>
+        <v>-197.93100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>26114.347867</v>
       </c>
       <c r="G4" s="1">
-        <v>7.253986</v>
+        <v>7.2539860000000003</v>
       </c>
       <c r="H4" s="1">
-        <v>920.723000</v>
+        <v>920.72299999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.867000</v>
+        <v>-167.86699999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>26124.805979</v>
+        <v>26124.805979000001</v>
       </c>
       <c r="L4" s="1">
-        <v>7.256891</v>
+        <v>7.2568910000000004</v>
       </c>
       <c r="M4" s="1">
-        <v>942.898000</v>
+        <v>942.89800000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.014000</v>
+        <v>-120.014</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>26135.294381</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.259804</v>
+        <v>7.2598039999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>949.498000</v>
+        <v>949.49800000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.414000</v>
+        <v>-104.414</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>26145.825936</v>
+        <v>26145.825936000001</v>
       </c>
       <c r="V4" s="1">
-        <v>7.262729</v>
+        <v>7.2627290000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>955.955000</v>
+        <v>955.95500000000004</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.405500</v>
+        <v>-90.405500000000004</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>26156.579228</v>
+        <v>26156.579227999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>7.265716</v>
+        <v>7.2657160000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>963.040000</v>
+        <v>963.04</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.643500</v>
+        <v>-80.643500000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>26167.138035</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.268649</v>
+        <v>7.2686489999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.969000</v>
+        <v>967.96900000000005</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.057200</v>
+        <v>-80.057199999999995</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>26177.600150</v>
+        <v>26177.600149999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.271556</v>
+        <v>7.2715560000000004</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.866000</v>
+        <v>975.86599999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.629400</v>
+        <v>-87.629400000000004</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>26188.415415</v>
+        <v>26188.415414999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.274560</v>
+        <v>7.2745600000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.999000</v>
+        <v>984.99900000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.421000</v>
+        <v>-102.42100000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>26198.945017</v>
+        <v>26198.945016999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.277485</v>
+        <v>7.2774850000000004</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.332000</v>
+        <v>996.33199999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.855000</v>
+        <v>-123.855</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>26209.739419</v>
+        <v>26209.739419000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.280483</v>
+        <v>7.2804830000000003</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.505000</v>
+        <v>-142.505</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>26220.405389</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.283446</v>
+        <v>7.2834459999999996</v>
       </c>
       <c r="BF4" s="1">
-        <v>1051.040000</v>
+        <v>1051.04</v>
       </c>
       <c r="BG4" s="1">
-        <v>-227.107000</v>
+        <v>-227.107</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>26231.116531</v>
       </c>
       <c r="BJ4" s="1">
-        <v>7.286421</v>
+        <v>7.2864209999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1130.300000</v>
+        <v>1130.3</v>
       </c>
       <c r="BL4" s="1">
-        <v>-362.888000</v>
+        <v>-362.88799999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>26241.843017</v>
+        <v>26241.843016999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.289401</v>
+        <v>7.2894009999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1261.540000</v>
+        <v>1261.54</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-572.647000</v>
+        <v>-572.64700000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>26252.624018</v>
+        <v>26252.624017999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.292396</v>
+        <v>7.2923960000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1409.270000</v>
+        <v>1409.27</v>
       </c>
       <c r="BV4" s="1">
-        <v>-796.414000</v>
+        <v>-796.41399999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>26263.350004</v>
       </c>
       <c r="BY4" s="1">
-        <v>7.295375</v>
+        <v>7.2953749999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1570.930000</v>
+        <v>1570.93</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1030.210000</v>
+        <v>-1030.21</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>26274.490150</v>
+        <v>26274.490150000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>7.298469</v>
+        <v>7.2984689999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1980.880000</v>
+        <v>1980.88</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1574.780000</v>
+        <v>-1574.78</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>26104.321734</v>
+        <v>26104.321734000001</v>
       </c>
       <c r="B5" s="1">
-        <v>7.251200</v>
+        <v>7.2511999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>903.805000</v>
+        <v>903.80499999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.949000</v>
+        <v>-197.94900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>26114.693576</v>
+        <v>26114.693576000001</v>
       </c>
       <c r="G5" s="1">
-        <v>7.254082</v>
+        <v>7.2540820000000004</v>
       </c>
       <c r="H5" s="1">
-        <v>920.721000</v>
+        <v>920.721</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.597000</v>
+        <v>-167.59700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>26125.151194</v>
+        <v>26125.151193999998</v>
       </c>
       <c r="L5" s="1">
-        <v>7.256986</v>
+        <v>7.2569860000000004</v>
       </c>
       <c r="M5" s="1">
-        <v>943.080000</v>
+        <v>943.08</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.908000</v>
+        <v>-119.908</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>26135.955548</v>
+        <v>26135.955548000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>7.259988</v>
+        <v>7.2599879999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>949.523000</v>
+        <v>949.52300000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.377000</v>
+        <v>-104.377</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>26146.475231</v>
       </c>
       <c r="V5" s="1">
-        <v>7.262910</v>
+        <v>7.2629099999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>955.890000</v>
+        <v>955.89</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.427500</v>
+        <v>-90.427499999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>26156.969264</v>
+        <v>26156.969263999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.265825</v>
+        <v>7.2658250000000004</v>
       </c>
       <c r="AB5" s="1">
-        <v>963.086000</v>
+        <v>963.08600000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.652500</v>
+        <v>-80.652500000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>26167.509043</v>
+        <v>26167.509042999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.268753</v>
+        <v>7.2687530000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.970000</v>
+        <v>967.97</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.993500</v>
+        <v>-79.993499999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>26177.953828</v>
+        <v>26177.953828000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>7.271654</v>
+        <v>7.2716539999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.879000</v>
+        <v>975.87900000000002</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.615700</v>
+        <v>-87.615700000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>26188.586577</v>
+        <v>26188.586576999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.274607</v>
+        <v>7.2746069999999996</v>
       </c>
       <c r="AQ5" s="1">
-        <v>985.013000</v>
+        <v>985.01300000000003</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.424000</v>
+        <v>-102.42400000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>26199.313512</v>
+        <v>26199.313512000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.277587</v>
+        <v>7.2775869999999996</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.344000</v>
+        <v>996.34400000000005</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.853000</v>
+        <v>-123.85299999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>26210.155066</v>
+        <v>26210.155065999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.280599</v>
+        <v>7.2805989999999996</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.930000</v>
+        <v>1005.93</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.517000</v>
+        <v>-142.517</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>26220.821532</v>
+        <v>26220.821532000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.283562</v>
+        <v>7.2835619999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1051.040000</v>
+        <v>1051.04</v>
       </c>
       <c r="BG5" s="1">
-        <v>-227.118000</v>
+        <v>-227.11799999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>26231.455790</v>
+        <v>26231.45579</v>
       </c>
       <c r="BJ5" s="1">
-        <v>7.286515</v>
+        <v>7.2865149999999996</v>
       </c>
       <c r="BK5" s="1">
-        <v>1130.340000</v>
+        <v>1130.3399999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-362.918000</v>
+        <v>-362.91800000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>26242.244252</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.289512</v>
+        <v>7.2895120000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1261.520000</v>
+        <v>1261.52</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-572.646000</v>
+        <v>-572.64599999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>26253.036226</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.292510</v>
+        <v>7.29251</v>
       </c>
       <c r="BU5" s="1">
-        <v>1409.360000</v>
+        <v>1409.36</v>
       </c>
       <c r="BV5" s="1">
-        <v>-796.492000</v>
+        <v>-796.49199999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>26263.786485</v>
+        <v>26263.786485000001</v>
       </c>
       <c r="BY5" s="1">
         <v>7.295496</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1570.920000</v>
+        <v>1570.92</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1030.060000</v>
+        <v>-1030.06</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>26275.007012</v>
+        <v>26275.007011999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.298613</v>
+        <v>7.2986129999999996</v>
       </c>
       <c r="CE5" s="1">
-        <v>1980.360000</v>
+        <v>1980.36</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1575.770000</v>
+        <v>-1575.77</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>26104.663445</v>
+        <v>26104.663444999998</v>
       </c>
       <c r="B6" s="1">
-        <v>7.251295</v>
+        <v>7.2512949999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>903.625000</v>
+        <v>903.625</v>
       </c>
       <c r="D6" s="1">
-        <v>-198.050000</v>
+        <v>-198.05</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>26115.347767</v>
+        <v>26115.347766999999</v>
       </c>
       <c r="G6" s="1">
-        <v>7.254263</v>
+        <v>7.2542629999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>920.889000</v>
+        <v>920.88900000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.477000</v>
+        <v>-167.477</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>26125.798505</v>
+        <v>26125.798504999999</v>
       </c>
       <c r="L6" s="1">
-        <v>7.257166</v>
+        <v>7.2571659999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>943.027000</v>
+        <v>943.02700000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.024000</v>
+        <v>-120.024</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>26136.340941</v>
+        <v>26136.340940999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.260095</v>
+        <v>7.2600949999999997</v>
       </c>
       <c r="R6" s="1">
-        <v>949.566000</v>
+        <v>949.56600000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.396000</v>
+        <v>-104.396</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>26146.857614</v>
       </c>
       <c r="V6" s="1">
-        <v>7.263016</v>
+        <v>7.2630160000000004</v>
       </c>
       <c r="W6" s="1">
-        <v>955.939000</v>
+        <v>955.93899999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.398400</v>
+        <v>-90.398399999999995</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>26157.318754</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.265922</v>
+        <v>7.2659219999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>963.086000</v>
+        <v>963.08600000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.649000</v>
+        <v>-80.649000000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>26167.852314</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.268848</v>
+        <v>7.2688480000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>968.012000</v>
+        <v>968.01199999999994</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.004900</v>
+        <v>-80.004900000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>26178.300004</v>
+        <v>26178.300004000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.271750</v>
+        <v>7.2717499999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.864000</v>
+        <v>975.86400000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.622900</v>
+        <v>-87.622900000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>26189.210006</v>
+        <v>26189.210006000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>7.274781</v>
+        <v>7.2747809999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>985.033000</v>
+        <v>985.03300000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.434000</v>
+        <v>-102.434</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>26199.728168</v>
+        <v>26199.728168000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.277702</v>
+        <v>7.2777019999999997</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.349000</v>
+        <v>996.34900000000005</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.858000</v>
+        <v>-123.858</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>26210.456666</v>
+        <v>26210.456665999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.280682</v>
+        <v>7.2806819999999997</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.940000</v>
+        <v>1005.94</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.528000</v>
+        <v>-142.52799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>26221.128059</v>
+        <v>26221.128058999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.283647</v>
+        <v>7.2836470000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1051.040000</v>
+        <v>1051.04</v>
       </c>
       <c r="BG6" s="1">
-        <v>-227.114000</v>
+        <v>-227.114</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>26231.830239</v>
+        <v>26231.830238999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>7.286620</v>
+        <v>7.2866200000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1130.310000</v>
+        <v>1130.31</v>
       </c>
       <c r="BL6" s="1">
-        <v>-362.871000</v>
+        <v>-362.87099999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>26242.649968</v>
+        <v>26242.649968000002</v>
       </c>
       <c r="BO6" s="1">
         <v>7.289625</v>
       </c>
       <c r="BP6" s="1">
-        <v>1261.520000</v>
+        <v>1261.52</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-572.693000</v>
+        <v>-572.69299999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>26253.453361</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.292626</v>
+        <v>7.2926260000000003</v>
       </c>
       <c r="BU6" s="1">
-        <v>1409.340000</v>
+        <v>1409.34</v>
       </c>
       <c r="BV6" s="1">
-        <v>-796.696000</v>
+        <v>-796.69600000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>26264.280004</v>
       </c>
       <c r="BY6" s="1">
-        <v>7.295633</v>
+        <v>7.2956329999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1570.760000</v>
+        <v>1570.76</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1030.020000</v>
+        <v>-1030.02</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>26275.560515</v>
+        <v>26275.560515000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>7.298767</v>
+        <v>7.2987669999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>1979.490000</v>
+        <v>1979.49</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1575.860000</v>
+        <v>-1575.86</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>26105.311717</v>
       </c>
       <c r="B7" s="1">
-        <v>7.251475</v>
+        <v>7.2514750000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>903.467000</v>
+        <v>903.46699999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.237000</v>
+        <v>-198.23699999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>26115.731208</v>
+        <v>26115.731208000001</v>
       </c>
       <c r="G7" s="1">
-        <v>7.254370</v>
+        <v>7.2543699999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>920.887000</v>
+        <v>920.88699999999994</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.712000</v>
+        <v>-167.71199999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>26126.188641</v>
+        <v>26126.188641000001</v>
       </c>
       <c r="L7" s="1">
-        <v>7.257275</v>
+        <v>7.2572749999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>942.859000</v>
+        <v>942.85900000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.999000</v>
+        <v>-119.999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>26136.689163</v>
+        <v>26136.689162999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.260191</v>
+        <v>7.2601909999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>949.571000</v>
+        <v>949.57100000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.419000</v>
+        <v>-104.419</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>26147.189969</v>
+        <v>26147.189968999999</v>
       </c>
       <c r="V7" s="1">
-        <v>7.263108</v>
+        <v>7.2631079999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>955.923000</v>
+        <v>955.923</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.396300</v>
+        <v>-90.396299999999997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>26157.669219</v>
+        <v>26157.669218999999</v>
       </c>
       <c r="AA7" s="1">
         <v>7.266019</v>
       </c>
       <c r="AB7" s="1">
-        <v>963.141000</v>
+        <v>963.14099999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.562600</v>
+        <v>-80.562600000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>26168.194547</v>
+        <v>26168.194546999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.268943</v>
+        <v>7.2689430000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.987000</v>
+        <v>967.98699999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.068400</v>
+        <v>-80.068399999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>26178.721107</v>
+        <v>26178.721107000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.271867</v>
+        <v>7.2718670000000003</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.880000</v>
+        <v>975.88</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.634200</v>
+        <v>-87.634200000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>26189.330038</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.274814</v>
+        <v>7.2748140000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>985.011000</v>
+        <v>985.01099999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.420000</v>
+        <v>-102.42</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>26200.038663</v>
+        <v>26200.038662999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.277789</v>
+        <v>7.2777890000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.335000</v>
+        <v>996.33500000000004</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.848000</v>
+        <v>-123.848</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>26210.815737</v>
+        <v>26210.815737000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>7.280782</v>
+        <v>7.2807820000000003</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.524000</v>
+        <v>-142.524</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>26221.491131</v>
+        <v>26221.491130999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.283748</v>
+        <v>7.2837480000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1051.040000</v>
+        <v>1051.04</v>
       </c>
       <c r="BG7" s="1">
-        <v>-227.111000</v>
+        <v>-227.11099999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>26232.231005</v>
+        <v>26232.231005000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.286731</v>
+        <v>7.2867309999999996</v>
       </c>
       <c r="BK7" s="1">
-        <v>1130.330000</v>
+        <v>1130.33</v>
       </c>
       <c r="BL7" s="1">
-        <v>-362.922000</v>
+        <v>-362.92200000000003</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>26243.049246</v>
+        <v>26243.049245999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.289736</v>
+        <v>7.2897360000000004</v>
       </c>
       <c r="BP7" s="1">
-        <v>1261.540000</v>
+        <v>1261.54</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-572.646000</v>
+        <v>-572.64599999999996</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>26253.866497</v>
+        <v>26253.866496999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>7.292741</v>
+        <v>7.2927410000000004</v>
       </c>
       <c r="BU7" s="1">
-        <v>1409.360000</v>
+        <v>1409.36</v>
       </c>
       <c r="BV7" s="1">
-        <v>-796.811000</v>
+        <v>-796.81100000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>26264.629186</v>
+        <v>26264.629185999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>7.295730</v>
+        <v>7.2957299999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1570.880000</v>
+        <v>1570.88</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1030.060000</v>
+        <v>-1030.06</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>26276.087268</v>
+        <v>26276.087267999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.298913</v>
+        <v>7.2989129999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1980.610000</v>
+        <v>1980.61</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1574.950000</v>
+        <v>-1574.95</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>26105.688180</v>
+        <v>26105.688180000001</v>
       </c>
       <c r="B8" s="1">
-        <v>7.251580</v>
+        <v>7.2515799999999997</v>
       </c>
       <c r="C8" s="1">
-        <v>903.656000</v>
+        <v>903.65599999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.035000</v>
+        <v>-198.035</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>26116.077880</v>
+        <v>26116.077880000001</v>
       </c>
       <c r="G8" s="1">
-        <v>7.254466</v>
+        <v>7.2544659999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>920.692000</v>
+        <v>920.69200000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.925000</v>
+        <v>-167.92500000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>26126.534569</v>
+        <v>26126.534568999999</v>
       </c>
       <c r="L8" s="1">
         <v>7.257371</v>
       </c>
       <c r="M8" s="1">
-        <v>942.909000</v>
+        <v>942.90899999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.046000</v>
+        <v>-120.04600000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>26137.038812</v>
+        <v>26137.038811999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.260289</v>
+        <v>7.2602890000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>949.539000</v>
+        <v>949.53899999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.427000</v>
+        <v>-104.42700000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>26147.545069</v>
       </c>
       <c r="V8" s="1">
-        <v>7.263207</v>
+        <v>7.2632070000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>955.885000</v>
+        <v>955.88499999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.412900</v>
+        <v>-90.412899999999993</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>26158.093530</v>
+        <v>26158.093529999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.266137</v>
+        <v>7.2661369999999996</v>
       </c>
       <c r="AB8" s="1">
-        <v>963.096000</v>
+        <v>963.096</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.585600</v>
+        <v>-80.585599999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>26168.606721</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.269057</v>
+        <v>7.2690570000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.986000</v>
+        <v>967.98599999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.010800</v>
+        <v>-80.010800000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>26179.006835</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.271946</v>
+        <v>7.2719459999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.879000</v>
+        <v>975.87900000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.624900</v>
+        <v>-87.624899999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>26189.702070</v>
+        <v>26189.702069999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.274917</v>
+        <v>7.2749170000000003</v>
       </c>
       <c r="AQ8" s="1">
-        <v>985.005000</v>
+        <v>985.005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.439000</v>
+        <v>-102.43899999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>26200.405703</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.277890</v>
+        <v>7.2778900000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.354000</v>
+        <v>996.35400000000004</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.842000</v>
+        <v>-123.842</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>26211.174872</v>
       </c>
       <c r="AZ8" s="1">
-        <v>7.280882</v>
+        <v>7.2808820000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.930000</v>
+        <v>1005.93</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.510000</v>
+        <v>-142.51</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>26221.851755</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.283848</v>
+        <v>7.2838479999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1051.040000</v>
+        <v>1051.04</v>
       </c>
       <c r="BG8" s="1">
-        <v>-227.104000</v>
+        <v>-227.10400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>26232.984460</v>
+        <v>26232.98446</v>
       </c>
       <c r="BJ8" s="1">
-        <v>7.286940</v>
+        <v>7.2869400000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1130.320000</v>
+        <v>1130.32</v>
       </c>
       <c r="BL8" s="1">
-        <v>-362.904000</v>
+        <v>-362.904</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>26243.470846</v>
       </c>
       <c r="BO8" s="1">
-        <v>7.289853</v>
+        <v>7.2898529999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1261.520000</v>
+        <v>1261.52</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-572.675000</v>
+        <v>-572.67499999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>26254.281153</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.292856</v>
+        <v>7.2928559999999996</v>
       </c>
       <c r="BU8" s="1">
-        <v>1409.280000</v>
+        <v>1409.28</v>
       </c>
       <c r="BV8" s="1">
-        <v>-796.952000</v>
+        <v>-796.952</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>26265.055778</v>
+        <v>26265.055778000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.295849</v>
+        <v>7.2958489999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1570.930000</v>
+        <v>1570.93</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1030.110000</v>
+        <v>-1030.1099999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>26276.607572</v>
+        <v>26276.607572000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>7.299058</v>
+        <v>7.2990579999999996</v>
       </c>
       <c r="CE8" s="1">
-        <v>1978.780000</v>
+        <v>1978.78</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1574.520000</v>
+        <v>-1574.52</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>26106.031449</v>
+        <v>26106.031448999998</v>
       </c>
       <c r="B9" s="1">
-        <v>7.251675</v>
+        <v>7.2516749999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>903.401000</v>
+        <v>903.40099999999995</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.802000</v>
+        <v>-197.80199999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>26116.423110</v>
+        <v>26116.42311</v>
       </c>
       <c r="G9" s="1">
         <v>7.254562</v>
       </c>
       <c r="H9" s="1">
-        <v>920.977000</v>
+        <v>920.97699999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.956000</v>
+        <v>-167.95599999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>26126.879257</v>
+        <v>26126.879257000001</v>
       </c>
       <c r="L9" s="1">
         <v>7.257466</v>
       </c>
       <c r="M9" s="1">
-        <v>943.115000</v>
+        <v>943.11500000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.070000</v>
+        <v>-120.07</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>26137.446065</v>
@@ -2325,557 +2741,557 @@
         <v>7.260402</v>
       </c>
       <c r="R9" s="1">
-        <v>949.497000</v>
+        <v>949.49699999999996</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.402000</v>
+        <v>-104.402</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>26147.962204</v>
+        <v>26147.962203999999</v>
       </c>
       <c r="V9" s="1">
-        <v>7.263323</v>
+        <v>7.2633229999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>955.911000</v>
+        <v>955.91099999999994</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.366600</v>
+        <v>-90.366600000000005</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>26158.365824</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.266213</v>
+        <v>7.2662129999999996</v>
       </c>
       <c r="AB9" s="1">
-        <v>963.112000</v>
+        <v>963.11199999999997</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.746400</v>
+        <v>-80.746399999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>26168.898833</v>
+        <v>26168.898832999999</v>
       </c>
       <c r="AF9" s="1">
         <v>7.269139</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.995000</v>
+        <v>967.995</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.027600</v>
+        <v>-80.027600000000007</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>26179.359459</v>
+        <v>26179.359458999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.272044</v>
+        <v>7.2720440000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.897000</v>
+        <v>975.89700000000005</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.645200</v>
+        <v>-87.645200000000003</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>26190.062133</v>
+        <v>26190.062132999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>7.275017</v>
+        <v>7.2750170000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>985.009000</v>
+        <v>985.00900000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.431000</v>
+        <v>-102.431</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>26200.769270</v>
+        <v>26200.769270000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.277991</v>
+        <v>7.2779910000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.347000</v>
+        <v>996.34699999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.847000</v>
+        <v>-123.84699999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>26211.900520</v>
+        <v>26211.900519999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.281083</v>
+        <v>7.2810829999999997</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.930000</v>
+        <v>1005.93</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.515000</v>
+        <v>-142.51499999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>26222.573898</v>
+        <v>26222.573897999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.284048</v>
+        <v>7.2840480000000003</v>
       </c>
       <c r="BF9" s="1">
-        <v>1051.040000</v>
+        <v>1051.04</v>
       </c>
       <c r="BG9" s="1">
-        <v>-227.134000</v>
+        <v>-227.13399999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>26233.382715</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.287051</v>
+        <v>7.2870509999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1130.300000</v>
+        <v>1130.3</v>
       </c>
       <c r="BL9" s="1">
-        <v>-362.912000</v>
+        <v>-362.91199999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>26243.867149</v>
+        <v>26243.867149000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.289963</v>
+        <v>7.2899630000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1261.570000</v>
+        <v>1261.57</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-572.709000</v>
+        <v>-572.70899999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>26254.696800</v>
+        <v>26254.696800000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.292971</v>
+        <v>7.2929709999999996</v>
       </c>
       <c r="BU9" s="1">
-        <v>1409.140000</v>
+        <v>1409.14</v>
       </c>
       <c r="BV9" s="1">
-        <v>-797.108000</v>
+        <v>-797.10799999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>26265.786849</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.296052</v>
+        <v>7.2960520000000004</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1570.920000</v>
+        <v>1570.92</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1030.240000</v>
+        <v>-1030.24</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>26277.444852</v>
+        <v>26277.444852000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.299290</v>
+        <v>7.2992900000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1980.590000</v>
+        <v>1980.59</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1574.720000</v>
+        <v>-1574.72</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>26106.373769</v>
+        <v>26106.373769000002</v>
       </c>
       <c r="B10" s="1">
-        <v>7.251770</v>
+        <v>7.2517699999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>903.476000</v>
+        <v>903.476</v>
       </c>
       <c r="D10" s="1">
-        <v>-197.989000</v>
+        <v>-197.989</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>26116.840230</v>
+        <v>26116.840230000002</v>
       </c>
       <c r="G10" s="1">
-        <v>7.254678</v>
+        <v>7.2546780000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>920.179000</v>
+        <v>920.17899999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.665000</v>
+        <v>-167.66499999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>26127.293945</v>
+        <v>26127.293945000001</v>
       </c>
       <c r="L10" s="1">
-        <v>7.257582</v>
+        <v>7.2575820000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>943.040000</v>
+        <v>943.04</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.007000</v>
+        <v>-120.00700000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>26137.743626</v>
+        <v>26137.743625999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.260484</v>
+        <v>7.2604839999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>949.488000</v>
+        <v>949.48800000000006</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.431000</v>
+        <v>-104.431</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>26148.256332</v>
+        <v>26148.256332000001</v>
       </c>
       <c r="V10" s="1">
-        <v>7.263405</v>
+        <v>7.2634049999999997</v>
       </c>
       <c r="W10" s="1">
-        <v>955.935000</v>
+        <v>955.93499999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.391800</v>
+        <v>-90.391800000000003</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>26158.717950</v>
+        <v>26158.717949999998</v>
       </c>
       <c r="AA10" s="1">
         <v>7.266311</v>
       </c>
       <c r="AB10" s="1">
-        <v>963.064000</v>
+        <v>963.06399999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.644600</v>
+        <v>-80.644599999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>26169.424128</v>
+        <v>26169.424127999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.269284</v>
+        <v>7.2692839999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.962000</v>
+        <v>967.96199999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.032900</v>
+        <v>-80.032899999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>26179.706690</v>
+        <v>26179.706689999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>7.272141</v>
+        <v>7.2721410000000004</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.868000</v>
+        <v>975.86800000000005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.637600</v>
+        <v>-87.637600000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>26190.782913</v>
+        <v>26190.782912999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.275217</v>
+        <v>7.2752169999999996</v>
       </c>
       <c r="AQ10" s="1">
-        <v>985.026000</v>
+        <v>985.02599999999995</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.413000</v>
+        <v>-102.413</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>26201.496940</v>
+        <v>26201.496940000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>7.278194</v>
+        <v>7.2781940000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.339000</v>
+        <v>996.33900000000006</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.865000</v>
+        <v>-123.86499999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>26212.275005</v>
       </c>
       <c r="AZ10" s="1">
-        <v>7.281188</v>
+        <v>7.2811880000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.505000</v>
+        <v>-142.505</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>26222.959326</v>
       </c>
       <c r="BE10" s="1">
-        <v>7.284155</v>
+        <v>7.2841550000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1051.010000</v>
+        <v>1051.01</v>
       </c>
       <c r="BG10" s="1">
-        <v>-227.131000</v>
+        <v>-227.131</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>26233.757691</v>
+        <v>26233.757690999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.287155</v>
+        <v>7.2871550000000003</v>
       </c>
       <c r="BK10" s="1">
-        <v>1130.320000</v>
+        <v>1130.32</v>
       </c>
       <c r="BL10" s="1">
-        <v>-362.912000</v>
+        <v>-362.91199999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>26244.286797</v>
+        <v>26244.286797000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.290080</v>
+        <v>7.2900799999999997</v>
       </c>
       <c r="BP10" s="1">
-        <v>1261.590000</v>
+        <v>1261.5899999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-572.659000</v>
+        <v>-572.65899999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>26255.450222</v>
+        <v>26255.450221999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.293181</v>
+        <v>7.2931809999999997</v>
       </c>
       <c r="BU10" s="1">
-        <v>1409.000000</v>
+        <v>1409</v>
       </c>
       <c r="BV10" s="1">
-        <v>-797.145000</v>
+        <v>-797.14499999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>26265.928209</v>
+        <v>26265.928209000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.296091</v>
+        <v>7.2960909999999997</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1570.830000</v>
+        <v>1570.83</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1030.170000</v>
+        <v>-1030.17</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>26277.684882</v>
+        <v>26277.684882000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.299357</v>
+        <v>7.2993569999999997</v>
       </c>
       <c r="CE10" s="1">
-        <v>1980.600000</v>
+        <v>1980.6</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1574.690000</v>
+        <v>-1574.69</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>26106.793771</v>
+        <v>26106.793771000001</v>
       </c>
       <c r="B11" s="1">
         <v>7.251887</v>
       </c>
       <c r="C11" s="1">
-        <v>903.700000</v>
+        <v>903.7</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.012000</v>
+        <v>-198.012</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>26117.117029</v>
+        <v>26117.117029000001</v>
       </c>
       <c r="G11" s="1">
-        <v>7.254755</v>
+        <v>7.2547550000000003</v>
       </c>
       <c r="H11" s="1">
-        <v>920.692000</v>
+        <v>920.69200000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.280000</v>
+        <v>-168.28</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>26127.569192</v>
+        <v>26127.569191999999</v>
       </c>
       <c r="L11" s="1">
-        <v>7.257658</v>
+        <v>7.2576580000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>943.075000</v>
+        <v>943.07500000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.945000</v>
+        <v>-119.94499999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>26138.095291</v>
+        <v>26138.095291000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.260582</v>
+        <v>7.2605820000000003</v>
       </c>
       <c r="R11" s="1">
-        <v>949.509000</v>
+        <v>949.50900000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.390000</v>
+        <v>-104.39</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>26148.600557</v>
+        <v>26148.600557000002</v>
       </c>
       <c r="V11" s="1">
-        <v>7.263500</v>
+        <v>7.2634999999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>955.887000</v>
+        <v>955.88699999999994</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.340800</v>
+        <v>-90.340800000000002</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>26159.064686</v>
+        <v>26159.064686000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>7.266407</v>
+        <v>7.2664070000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.039000</v>
+        <v>963.03899999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.592400</v>
+        <v>-80.592399999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>26169.881941</v>
@@ -2884,13 +3300,13 @@
         <v>7.269412</v>
       </c>
       <c r="AG11" s="1">
-        <v>968.010000</v>
+        <v>968.01</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.044000</v>
+        <v>-80.043999999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>26180.407506</v>
@@ -2899,844 +3315,844 @@
         <v>7.272335</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.850000</v>
+        <v>975.85</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.656100</v>
+        <v>-87.656099999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>26191.170195</v>
+        <v>26191.170194999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.275325</v>
+        <v>7.2753249999999996</v>
       </c>
       <c r="AQ11" s="1">
-        <v>985.021000</v>
+        <v>985.02099999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.406000</v>
+        <v>-102.40600000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>26201.883814</v>
+        <v>26201.883814000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>7.278301</v>
+        <v>7.2783009999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.336000</v>
+        <v>996.33600000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.852000</v>
+        <v>-123.852</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>26212.654904</v>
+        <v>26212.654903999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.281293</v>
+        <v>7.2812929999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.930000</v>
+        <v>1005.93</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.511000</v>
+        <v>-142.511</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>26223.320377</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.284256</v>
+        <v>7.2842560000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1051.040000</v>
+        <v>1051.04</v>
       </c>
       <c r="BG11" s="1">
-        <v>-227.126000</v>
+        <v>-227.126</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>26234.445162</v>
       </c>
       <c r="BJ11" s="1">
-        <v>7.287346</v>
+        <v>7.2873460000000003</v>
       </c>
       <c r="BK11" s="1">
-        <v>1130.290000</v>
+        <v>1130.29</v>
       </c>
       <c r="BL11" s="1">
-        <v>-362.922000</v>
+        <v>-362.92200000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>26245.080391</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.290300</v>
+        <v>7.2903000000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1261.540000</v>
+        <v>1261.54</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-572.698000</v>
+        <v>-572.69799999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>26255.562355</v>
+        <v>26255.562354999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.293212</v>
+        <v>7.2932119999999996</v>
       </c>
       <c r="BU11" s="1">
-        <v>1408.840000</v>
+        <v>1408.84</v>
       </c>
       <c r="BV11" s="1">
-        <v>-797.026000</v>
+        <v>-797.02599999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>26266.354772</v>
+        <v>26266.354771999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>7.296210</v>
+        <v>7.2962100000000003</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1570.950000</v>
+        <v>1570.95</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1030.100000</v>
+        <v>-1030.0999999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>26278.203727</v>
       </c>
       <c r="CD11" s="1">
-        <v>7.299501</v>
+        <v>7.2995010000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>1979.140000</v>
+        <v>1979.14</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1574.400000</v>
+        <v>-1574.4</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>26107.070557</v>
+        <v>26107.070556999999</v>
       </c>
       <c r="B12" s="1">
-        <v>7.251964</v>
+        <v>7.2519640000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>903.488000</v>
+        <v>903.48800000000006</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.980000</v>
+        <v>-197.98</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>26117.461254</v>
+        <v>26117.461254000002</v>
       </c>
       <c r="G12" s="1">
-        <v>7.254850</v>
+        <v>7.2548500000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>920.772000</v>
+        <v>920.77200000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.816000</v>
+        <v>-167.816</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>26127.914903</v>
+        <v>26127.914903000001</v>
       </c>
       <c r="L12" s="1">
-        <v>7.257754</v>
+        <v>7.2577540000000003</v>
       </c>
       <c r="M12" s="1">
-        <v>943.079000</v>
+        <v>943.07899999999995</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.935000</v>
+        <v>-119.935</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>26138.441497</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.260678</v>
+        <v>7.2606780000000004</v>
       </c>
       <c r="R12" s="1">
-        <v>949.563000</v>
+        <v>949.56299999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.387000</v>
+        <v>-104.387</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>26148.943329</v>
+        <v>26148.943329000002</v>
       </c>
       <c r="V12" s="1">
-        <v>7.263595</v>
+        <v>7.2635949999999996</v>
       </c>
       <c r="W12" s="1">
-        <v>955.928000</v>
+        <v>955.928</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.406000</v>
+        <v>-90.406000000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>26159.758584</v>
+        <v>26159.758583999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.266600</v>
+        <v>7.2666000000000004</v>
       </c>
       <c r="AB12" s="1">
-        <v>963.054000</v>
+        <v>963.05399999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.624900</v>
+        <v>-80.624899999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>26170.273743</v>
+        <v>26170.273743000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.269520</v>
+        <v>7.26952</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.963000</v>
+        <v>967.96299999999997</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.050500</v>
+        <v>-80.0505</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>26180.752257</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.272431</v>
+        <v>7.2724310000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.885000</v>
+        <v>975.88499999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.625900</v>
+        <v>-87.625900000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>26191.529299</v>
+        <v>26191.529299000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>7.275425</v>
+        <v>7.2754250000000003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>985.011000</v>
+        <v>985.01099999999997</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.422000</v>
+        <v>-102.422</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>26202.250324</v>
+        <v>26202.250324000001</v>
       </c>
       <c r="AU12" s="1">
         <v>7.278403</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.343000</v>
+        <v>996.34299999999996</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.847000</v>
+        <v>-123.84699999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>26213.319579</v>
+        <v>26213.319578999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.281478</v>
+        <v>7.2814779999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.910000</v>
+        <v>1005.91</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.536000</v>
+        <v>-142.536</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>26223.983529</v>
+        <v>26223.983529000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.284440</v>
+        <v>7.28444</v>
       </c>
       <c r="BF12" s="1">
-        <v>1051.050000</v>
+        <v>1051.05</v>
       </c>
       <c r="BG12" s="1">
-        <v>-227.112000</v>
+        <v>-227.11199999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>26234.552778</v>
+        <v>26234.552778000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>7.287376</v>
+        <v>7.2873760000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1130.310000</v>
+        <v>1130.31</v>
       </c>
       <c r="BL12" s="1">
-        <v>-362.913000</v>
+        <v>-362.91300000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>26245.524811</v>
+        <v>26245.524810999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.290424</v>
+        <v>7.2904239999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1261.560000</v>
+        <v>1261.56</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-572.634000</v>
+        <v>-572.63400000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>26256.000318</v>
+        <v>26256.000317999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>7.293333</v>
+        <v>7.2933329999999996</v>
       </c>
       <c r="BU12" s="1">
-        <v>1408.660000</v>
+        <v>1408.66</v>
       </c>
       <c r="BV12" s="1">
-        <v>-797.003000</v>
+        <v>-797.00300000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>26266.772431</v>
+        <v>26266.772431000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>7.296326</v>
+        <v>7.2963259999999996</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1570.940000</v>
+        <v>1570.94</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1030.300000</v>
+        <v>-1030.3</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>26278.721055</v>
+        <v>26278.721055000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.299645</v>
+        <v>7.2996449999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1979.740000</v>
+        <v>1979.74</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1574.350000</v>
+        <v>-1574.35</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>26107.415250</v>
+        <v>26107.415249999998</v>
       </c>
       <c r="B13" s="1">
-        <v>7.252060</v>
+        <v>7.2520600000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>903.586000</v>
+        <v>903.58600000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.992000</v>
+        <v>-197.99199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>26117.809412</v>
+        <v>26117.809411999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7.254947</v>
+        <v>7.2549469999999996</v>
       </c>
       <c r="H13" s="1">
-        <v>921.007000</v>
+        <v>921.00699999999995</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.409000</v>
+        <v>-167.40899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>26128.263127</v>
+        <v>26128.263126999998</v>
       </c>
       <c r="L13" s="1">
-        <v>7.257851</v>
+        <v>7.2578509999999996</v>
       </c>
       <c r="M13" s="1">
-        <v>943.031000</v>
+        <v>943.03099999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.169000</v>
+        <v>-120.169</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>26139.140360</v>
+        <v>26139.140360000001</v>
       </c>
       <c r="Q13" s="1">
         <v>7.260872</v>
       </c>
       <c r="R13" s="1">
-        <v>949.528000</v>
+        <v>949.52800000000002</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.417000</v>
+        <v>-104.417</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>26149.628304</v>
+        <v>26149.628304000002</v>
       </c>
       <c r="V13" s="1">
-        <v>7.263786</v>
+        <v>7.2637859999999996</v>
       </c>
       <c r="W13" s="1">
-        <v>955.945000</v>
+        <v>955.94500000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.433900</v>
+        <v>-90.433899999999994</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>26160.110221</v>
+        <v>26160.110220999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.266697</v>
+        <v>7.2666969999999997</v>
       </c>
       <c r="AB13" s="1">
-        <v>963.125000</v>
+        <v>963.125</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.645600</v>
+        <v>-80.645600000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>26170.615983</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.269616</v>
+        <v>7.2696160000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.968000</v>
+        <v>967.96799999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.052000</v>
+        <v>-80.052000000000007</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>26181.102400</v>
+        <v>26181.1024</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.272528</v>
+        <v>7.2725280000000003</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.862000</v>
+        <v>975.86199999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.607100</v>
+        <v>-87.607100000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>26192.192450</v>
+        <v>26192.192449999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.275609</v>
+        <v>7.2756090000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>985.020000</v>
+        <v>985.02</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.427000</v>
+        <v>-102.42700000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>26202.913507</v>
+        <v>26202.913507000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.278587</v>
+        <v>7.2785869999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.352000</v>
+        <v>996.35199999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.851000</v>
+        <v>-123.851</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>26213.737206</v>
+        <v>26213.737206000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>7.281594</v>
+        <v>7.2815940000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.950000</v>
+        <v>1005.95</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.526000</v>
+        <v>-142.52600000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>26224.437863</v>
+        <v>26224.437862999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>7.284566</v>
+        <v>7.2845659999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1051.040000</v>
+        <v>1051.04</v>
       </c>
       <c r="BG13" s="1">
-        <v>-227.127000</v>
+        <v>-227.12700000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>26234.910890</v>
+        <v>26234.910889999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.287475</v>
+        <v>7.2874749999999997</v>
       </c>
       <c r="BK13" s="1">
-        <v>1130.290000</v>
+        <v>1130.29</v>
       </c>
       <c r="BL13" s="1">
-        <v>-362.898000</v>
+        <v>-362.89800000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>26245.921082</v>
+        <v>26245.921082000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.290534</v>
+        <v>7.2905340000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1261.550000</v>
+        <v>1261.55</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-572.707000</v>
+        <v>-572.70699999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>26256.414445</v>
+        <v>26256.414444999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>7.293448</v>
+        <v>7.2934479999999997</v>
       </c>
       <c r="BU13" s="1">
-        <v>1408.670000</v>
+        <v>1408.67</v>
       </c>
       <c r="BV13" s="1">
-        <v>-796.827000</v>
+        <v>-796.827</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>26267.217840</v>
+        <v>26267.217840000001</v>
       </c>
       <c r="BY13" s="1">
         <v>7.296449</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1570.980000</v>
+        <v>1570.98</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1030.080000</v>
+        <v>-1030.08</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>26279.272607</v>
+        <v>26279.272606999999</v>
       </c>
       <c r="CD13" s="1">
         <v>7.299798</v>
       </c>
       <c r="CE13" s="1">
-        <v>1980.730000</v>
+        <v>1980.73</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1574.860000</v>
+        <v>-1574.86</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>26107.757986</v>
+        <v>26107.757986000001</v>
       </c>
       <c r="B14" s="1">
-        <v>7.252155</v>
+        <v>7.2521550000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>903.502000</v>
+        <v>903.50199999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.177000</v>
+        <v>-198.17699999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>26118.492899</v>
+        <v>26118.492899000001</v>
       </c>
       <c r="G14" s="1">
-        <v>7.255137</v>
+        <v>7.2551370000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>920.791000</v>
+        <v>920.79100000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.818000</v>
+        <v>-167.81800000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>26128.956006</v>
       </c>
       <c r="L14" s="1">
-        <v>7.258043</v>
+        <v>7.2580429999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>942.968000</v>
+        <v>942.96799999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.052000</v>
+        <v>-120.05200000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>26139.489086</v>
+        <v>26139.489086000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.260969</v>
+        <v>7.2609690000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>949.510000</v>
+        <v>949.51</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.433000</v>
+        <v>-104.43300000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>26149.975008</v>
+        <v>26149.975008000001</v>
       </c>
       <c r="V14" s="1">
-        <v>7.263882</v>
+        <v>7.2638819999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>955.888000</v>
+        <v>955.88800000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.373700</v>
+        <v>-90.373699999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>26160.458908</v>
+        <v>26160.458908000001</v>
       </c>
       <c r="AA14" s="1">
         <v>7.266794</v>
       </c>
       <c r="AB14" s="1">
-        <v>963.050000</v>
+        <v>963.05</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.613000</v>
+        <v>-80.613</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>26171.256841</v>
+        <v>26171.256840999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.269794</v>
+        <v>7.2697940000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.972000</v>
+        <v>967.97199999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.034800</v>
+        <v>-80.034800000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>26181.758113</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.272711</v>
+        <v>7.2727110000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.884000</v>
+        <v>975.88400000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.610000</v>
+        <v>-87.61</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>26192.638877</v>
+        <v>26192.638877000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.275733</v>
+        <v>7.2757329999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>985.008000</v>
+        <v>985.00800000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.435000</v>
+        <v>-102.435</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>26203.376243</v>
+        <v>26203.376242999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>7.278716</v>
+        <v>7.2787160000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.340000</v>
+        <v>996.34</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.843000</v>
+        <v>-123.843</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>26214.112647</v>
+        <v>26214.112647000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.281698</v>
+        <v>7.2816979999999996</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.535000</v>
+        <v>-142.535</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>26224.799981</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.284667</v>
+        <v>7.2846669999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1051.030000</v>
+        <v>1051.03</v>
       </c>
       <c r="BG14" s="1">
-        <v>-227.118000</v>
+        <v>-227.11799999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>26235.284905</v>
@@ -3745,225 +4161,225 @@
         <v>7.287579</v>
       </c>
       <c r="BK14" s="1">
-        <v>1130.310000</v>
+        <v>1130.31</v>
       </c>
       <c r="BL14" s="1">
-        <v>-362.921000</v>
+        <v>-362.92099999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>26246.343674</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.290651</v>
+        <v>7.2906510000000004</v>
       </c>
       <c r="BP14" s="1">
-        <v>1261.560000</v>
+        <v>1261.56</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-572.684000</v>
+        <v>-572.68399999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>26256.846460</v>
+        <v>26256.846460000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.293568</v>
+        <v>7.2935679999999996</v>
       </c>
       <c r="BU14" s="1">
-        <v>1408.550000</v>
+        <v>1408.55</v>
       </c>
       <c r="BV14" s="1">
-        <v>-796.700000</v>
+        <v>-796.7</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>26267.642878</v>
+        <v>26267.642877999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.296567</v>
+        <v>7.2965669999999996</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1570.870000</v>
+        <v>1570.87</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1030.160000</v>
+        <v>-1030.1600000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>26279.792878</v>
       </c>
       <c r="CD14" s="1">
-        <v>7.299942</v>
+        <v>7.2999419999999997</v>
       </c>
       <c r="CE14" s="1">
-        <v>1979.680000</v>
+        <v>1979.68</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1574.270000</v>
+        <v>-1574.27</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>26108.441474</v>
+        <v>26108.441473999999</v>
       </c>
       <c r="B15" s="1">
         <v>7.252345</v>
       </c>
       <c r="C15" s="1">
-        <v>903.573000</v>
+        <v>903.57299999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.136000</v>
+        <v>-198.136</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>26118.842616</v>
+        <v>26118.842616000002</v>
       </c>
       <c r="G15" s="1">
-        <v>7.255234</v>
+        <v>7.2552339999999997</v>
       </c>
       <c r="H15" s="1">
-        <v>920.415000</v>
+        <v>920.41499999999996</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.503000</v>
+        <v>-167.50299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>26129.304702</v>
+        <v>26129.304702000001</v>
       </c>
       <c r="L15" s="1">
-        <v>7.258140</v>
+        <v>7.25814</v>
       </c>
       <c r="M15" s="1">
-        <v>943.216000</v>
+        <v>943.21600000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.992000</v>
+        <v>-119.992</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>26139.836247</v>
+        <v>26139.836246999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.261066</v>
+        <v>7.2610659999999996</v>
       </c>
       <c r="R15" s="1">
-        <v>949.506000</v>
+        <v>949.50599999999997</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.447000</v>
+        <v>-104.447</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>26150.315721</v>
+        <v>26150.315720999999</v>
       </c>
       <c r="V15" s="1">
-        <v>7.263977</v>
+        <v>7.2639769999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>955.958000</v>
+        <v>955.95799999999997</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.392400</v>
+        <v>-90.392399999999995</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>26161.110651</v>
+        <v>26161.110650999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.266975</v>
+        <v>7.2669750000000004</v>
       </c>
       <c r="AB15" s="1">
-        <v>963.051000</v>
+        <v>963.05100000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.632700</v>
+        <v>-80.6327</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>26171.648685</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.269902</v>
+        <v>7.2699020000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>968.019000</v>
+        <v>968.01900000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.023000</v>
+        <v>-80.022999999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>26182.147007</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.272819</v>
+        <v>7.2728190000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.880000</v>
+        <v>975.88</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.635100</v>
+        <v>-87.635099999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>26192.999938</v>
+        <v>26192.999938000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>7.275833</v>
+        <v>7.2758330000000004</v>
       </c>
       <c r="AQ15" s="1">
-        <v>985.025000</v>
+        <v>985.02499999999998</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.415000</v>
+        <v>-102.41500000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>26203.740306</v>
       </c>
       <c r="AU15" s="1">
-        <v>7.278817</v>
+        <v>7.2788170000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.357000</v>
+        <v>996.35699999999997</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.857000</v>
+        <v>-123.857</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>26214.491125</v>
@@ -3972,135 +4388,135 @@
         <v>7.281803</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.511000</v>
+        <v>-142.511</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>26225.162519</v>
+        <v>26225.162519000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.284767</v>
+        <v>7.2847670000000004</v>
       </c>
       <c r="BF15" s="1">
-        <v>1051.050000</v>
+        <v>1051.05</v>
       </c>
       <c r="BG15" s="1">
-        <v>-227.131000</v>
+        <v>-227.131</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>26235.710937</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.287697</v>
+        <v>7.2876969999999996</v>
       </c>
       <c r="BK15" s="1">
-        <v>1130.320000</v>
+        <v>1130.32</v>
       </c>
       <c r="BL15" s="1">
-        <v>-362.915000</v>
+        <v>-362.91500000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>26246.741003</v>
+        <v>26246.741002999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.290761</v>
+        <v>7.2907609999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1261.530000</v>
+        <v>1261.53</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-572.689000</v>
+        <v>-572.68899999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>26257.273020</v>
+        <v>26257.273020000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>7.293687</v>
+        <v>7.2936870000000003</v>
       </c>
       <c r="BU15" s="1">
-        <v>1408.640000</v>
+        <v>1408.64</v>
       </c>
       <c r="BV15" s="1">
-        <v>-796.556000</v>
+        <v>-796.55600000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>26268.063982</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.296684</v>
+        <v>7.2966839999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1570.860000</v>
+        <v>1570.86</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1030.250000</v>
+        <v>-1030.25</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>26280.320622</v>
+        <v>26280.320621999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>7.300089</v>
+        <v>7.3000889999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>1979.620000</v>
+        <v>1979.62</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1576.050000</v>
+        <v>-1576.05</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>26108.783217</v>
       </c>
       <c r="B16" s="1">
-        <v>7.252440</v>
+        <v>7.25244</v>
       </c>
       <c r="C16" s="1">
-        <v>903.547000</v>
+        <v>903.54700000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.994000</v>
+        <v>-197.994</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>26119.185314</v>
+        <v>26119.185313999998</v>
       </c>
       <c r="G16" s="1">
-        <v>7.255329</v>
+        <v>7.2553289999999997</v>
       </c>
       <c r="H16" s="1">
-        <v>920.636000</v>
+        <v>920.63599999999997</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.643000</v>
+        <v>-167.643</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>26129.646934</v>
@@ -4109,1902 +4525,1902 @@
         <v>7.258235</v>
       </c>
       <c r="M16" s="1">
-        <v>942.871000</v>
+        <v>942.87099999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.857000</v>
+        <v>-119.857</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>26140.492988</v>
+        <v>26140.492988000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.261248</v>
+        <v>7.2612480000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>949.533000</v>
+        <v>949.53300000000002</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.377000</v>
+        <v>-104.377</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>26151.045380</v>
+        <v>26151.04538</v>
       </c>
       <c r="V16" s="1">
-        <v>7.264179</v>
+        <v>7.2641790000000004</v>
       </c>
       <c r="W16" s="1">
-        <v>955.987000</v>
+        <v>955.98699999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.423200</v>
+        <v>-90.423199999999994</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>26161.504005</v>
+        <v>26161.504004999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>7.267084</v>
+        <v>7.2670839999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>963.054000</v>
+        <v>963.05399999999997</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.560400</v>
+        <v>-80.560400000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>26171.990892</v>
+        <v>26171.990892000002</v>
       </c>
       <c r="AF16" s="1">
         <v>7.269997</v>
       </c>
       <c r="AG16" s="1">
-        <v>968.009000</v>
+        <v>968.00900000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.036000</v>
+        <v>-80.036000000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>26182.496655</v>
+        <v>26182.496654999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>7.272916</v>
+        <v>7.2729160000000004</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.883000</v>
+        <v>975.88300000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.643200</v>
+        <v>-87.643199999999993</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>26193.360528</v>
+        <v>26193.360528000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>7.275933</v>
+        <v>7.2759330000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>985.015000</v>
+        <v>985.01499999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.402000</v>
+        <v>-102.402</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>26204.107383</v>
+        <v>26204.107382999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>7.278919</v>
+        <v>7.2789190000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.367000</v>
+        <v>996.36699999999996</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.836000</v>
+        <v>-123.836</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>26214.908227</v>
       </c>
       <c r="AZ16" s="1">
-        <v>7.281919</v>
+        <v>7.2819190000000003</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.540000</v>
+        <v>-142.54</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>26225.582662</v>
+        <v>26225.582662000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>7.284884</v>
+        <v>7.2848839999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1051.050000</v>
+        <v>1051.05</v>
       </c>
       <c r="BG16" s="1">
-        <v>-227.113000</v>
+        <v>-227.113</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>26236.034362</v>
+        <v>26236.034361999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.287787</v>
+        <v>7.2877869999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1130.300000</v>
+        <v>1130.3</v>
       </c>
       <c r="BL16" s="1">
-        <v>-362.905000</v>
+        <v>-362.90499999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>26247.160089</v>
+        <v>26247.160089000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.290878</v>
+        <v>7.2908780000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1261.540000</v>
+        <v>1261.54</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-572.682000</v>
+        <v>-572.68200000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>26257.684700</v>
+        <v>26257.684700000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.293801</v>
+        <v>7.2938010000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1408.670000</v>
+        <v>1408.67</v>
       </c>
       <c r="BV16" s="1">
-        <v>-796.487000</v>
+        <v>-796.48699999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>26268.512893</v>
+        <v>26268.512892999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.296809</v>
+        <v>7.2968089999999997</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1570.920000</v>
+        <v>1570.92</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1030.220000</v>
+        <v>-1030.22</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>26280.860269</v>
+        <v>26280.860269000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>7.300239</v>
+        <v>7.3002390000000004</v>
       </c>
       <c r="CE16" s="1">
-        <v>1980.440000</v>
+        <v>1980.44</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1574.350000</v>
+        <v>-1574.35</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>26109.122977</v>
+        <v>26109.122976999999</v>
       </c>
       <c r="B17" s="1">
-        <v>7.252534</v>
+        <v>7.2525339999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>903.302000</v>
+        <v>903.30200000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.803000</v>
+        <v>-197.803</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>26119.835601</v>
+        <v>26119.835600999999</v>
       </c>
       <c r="G17" s="1">
-        <v>7.255510</v>
+        <v>7.2555100000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>920.695000</v>
+        <v>920.69500000000005</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.672000</v>
+        <v>-167.672</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>26130.342820</v>
+        <v>26130.342820000002</v>
       </c>
       <c r="L17" s="1">
-        <v>7.258429</v>
+        <v>7.2584289999999996</v>
       </c>
       <c r="M17" s="1">
-        <v>943.129000</v>
+        <v>943.12900000000002</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.848000</v>
+        <v>-119.848</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>26140.883302</v>
+        <v>26140.883301999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.261356</v>
+        <v>7.2613560000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>949.543000</v>
+        <v>949.54300000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.386000</v>
+        <v>-104.386</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>26151.348888</v>
       </c>
       <c r="V17" s="1">
-        <v>7.264264</v>
+        <v>7.2642639999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>955.882000</v>
+        <v>955.88199999999995</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.448700</v>
+        <v>-90.448700000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>26161.852666</v>
+        <v>26161.852665999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>7.267181</v>
+        <v>7.2671809999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>963.162000</v>
+        <v>963.16200000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.493300</v>
+        <v>-80.493300000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>26172.334126</v>
+        <v>26172.334126000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.270093</v>
+        <v>7.2700930000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>968.007000</v>
+        <v>968.00699999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.053400</v>
+        <v>-80.053399999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>26182.844881</v>
+        <v>26182.844881000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>7.273012</v>
+        <v>7.2730119999999996</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.870000</v>
+        <v>975.87</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.615300</v>
+        <v>-87.615300000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>26193.784608</v>
+        <v>26193.784608000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.276051</v>
+        <v>7.2760509999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>985.025000</v>
+        <v>985.02499999999998</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.407000</v>
+        <v>-102.407</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>26204.519559</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.279033</v>
+        <v>7.2790330000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.331000</v>
+        <v>996.33100000000002</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.867000</v>
+        <v>-123.867</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>26215.208308</v>
+        <v>26215.208308000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.282002</v>
+        <v>7.2820020000000003</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.930000</v>
+        <v>1005.93</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.526000</v>
+        <v>-142.52600000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>26225.927350</v>
+        <v>26225.927350000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>7.284980</v>
+        <v>7.28498</v>
       </c>
       <c r="BF17" s="1">
-        <v>1051.050000</v>
+        <v>1051.05</v>
       </c>
       <c r="BG17" s="1">
-        <v>-227.115000</v>
+        <v>-227.11500000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>26236.430633</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.287897</v>
+        <v>7.2878970000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1130.320000</v>
+        <v>1130.32</v>
       </c>
       <c r="BL17" s="1">
-        <v>-362.891000</v>
+        <v>-362.89100000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>26247.557913</v>
+        <v>26247.557913000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>7.290988</v>
+        <v>7.2909879999999996</v>
       </c>
       <c r="BP17" s="1">
-        <v>1261.520000</v>
+        <v>1261.52</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-572.684000</v>
+        <v>-572.68399999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>26258.115259</v>
+        <v>26258.115258999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>7.293921</v>
+        <v>7.2939210000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1408.860000</v>
+        <v>1408.86</v>
       </c>
       <c r="BV17" s="1">
-        <v>-796.401000</v>
+        <v>-796.40099999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>26268.943388</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.296929</v>
+        <v>7.2969290000000004</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1570.980000</v>
+        <v>1570.98</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1030.160000</v>
+        <v>-1030.1600000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>26281.397969</v>
+        <v>26281.397969000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>7.300388</v>
+        <v>7.3003879999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1978.790000</v>
+        <v>1978.79</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1574.760000</v>
+        <v>-1574.76</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>26109.771744</v>
+        <v>26109.771744000001</v>
       </c>
       <c r="B18" s="1">
-        <v>7.252714</v>
+        <v>7.2527140000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>903.547000</v>
+        <v>903.54700000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.267000</v>
+        <v>-198.267</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>26120.218513</v>
       </c>
       <c r="G18" s="1">
-        <v>7.255616</v>
+        <v>7.2556159999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>921.068000</v>
+        <v>921.06799999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.744000</v>
+        <v>-167.744</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>26130.692003</v>
       </c>
       <c r="L18" s="1">
-        <v>7.258526</v>
+        <v>7.2585259999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>942.964000</v>
+        <v>942.96400000000006</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.991000</v>
+        <v>-119.991</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>26141.231494</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.261453</v>
+        <v>7.2614530000000004</v>
       </c>
       <c r="R18" s="1">
-        <v>949.562000</v>
+        <v>949.56200000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.401000</v>
+        <v>-104.401</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>26151.703073</v>
+        <v>26151.703073000001</v>
       </c>
       <c r="V18" s="1">
-        <v>7.264362</v>
+        <v>7.2643620000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>955.969000</v>
+        <v>955.96900000000005</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.403200</v>
+        <v>-90.403199999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>26162.202115</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.267278</v>
+        <v>7.2672780000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>963.100000</v>
+        <v>963.1</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.611900</v>
+        <v>-80.611900000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>26172.742333</v>
+        <v>26172.742332999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>7.270206</v>
+        <v>7.2702059999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.970000</v>
+        <v>967.97</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.995100</v>
+        <v>-79.995099999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>26183.258016</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.273127</v>
+        <v>7.2731269999999997</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.882000</v>
+        <v>975.88199999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.631300</v>
+        <v>-87.631299999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>26194.079727</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.276133</v>
+        <v>7.2761329999999997</v>
       </c>
       <c r="AQ18" s="1">
-        <v>985.021000</v>
+        <v>985.02099999999996</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.415000</v>
+        <v>-102.41500000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>26204.836006</v>
+        <v>26204.836006000001</v>
       </c>
       <c r="AU18" s="1">
         <v>7.279121</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.366000</v>
+        <v>996.36599999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.845000</v>
+        <v>-123.845</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>26215.566948</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.282102</v>
+        <v>7.2821020000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.531000</v>
+        <v>-142.53100000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>26226.274054</v>
+        <v>26226.274054000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.285076</v>
+        <v>7.2850760000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1051.040000</v>
+        <v>1051.04</v>
       </c>
       <c r="BG18" s="1">
-        <v>-227.117000</v>
+        <v>-227.11699999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>26236.810600</v>
+        <v>26236.810600000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.288003</v>
+        <v>7.2880029999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1130.330000</v>
+        <v>1130.33</v>
       </c>
       <c r="BL18" s="1">
-        <v>-362.908000</v>
+        <v>-362.90800000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>26247.977000</v>
+        <v>26247.976999999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.291105</v>
+        <v>7.2911049999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1261.550000</v>
+        <v>1261.55</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-572.700000</v>
+        <v>-572.70000000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>26258.545290</v>
+        <v>26258.545289999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.294040</v>
+        <v>7.2940399999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1408.910000</v>
+        <v>1408.91</v>
       </c>
       <c r="BV18" s="1">
-        <v>-796.285000</v>
+        <v>-796.28499999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>26269.364029</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.297046</v>
+        <v>7.2970459999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1570.850000</v>
+        <v>1570.85</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1030.100000</v>
+        <v>-1030.0999999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>26281.940090</v>
+        <v>26281.94009</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.300539</v>
+        <v>7.3005389999999997</v>
       </c>
       <c r="CE18" s="1">
-        <v>1980.550000</v>
+        <v>1980.55</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1575.890000</v>
+        <v>-1575.89</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>26110.146718</v>
       </c>
       <c r="B19" s="1">
-        <v>7.252819</v>
+        <v>7.2528189999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>903.564000</v>
+        <v>903.56399999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.932000</v>
+        <v>-197.93199999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>26120.566176</v>
       </c>
       <c r="G19" s="1">
-        <v>7.255713</v>
+        <v>7.2557130000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>921.070000</v>
+        <v>921.07</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.533000</v>
+        <v>-167.53299999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>26131.031267</v>
+        <v>26131.031266999998</v>
       </c>
       <c r="L19" s="1">
-        <v>7.258620</v>
+        <v>7.2586199999999996</v>
       </c>
       <c r="M19" s="1">
-        <v>943.151000</v>
+        <v>943.15099999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.068000</v>
+        <v>-120.068</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>26141.580212</v>
+        <v>26141.580212000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.261550</v>
+        <v>7.2615499999999997</v>
       </c>
       <c r="R19" s="1">
-        <v>949.513000</v>
+        <v>949.51300000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.426000</v>
+        <v>-104.426</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>26152.127607</v>
+        <v>26152.127606999999</v>
       </c>
       <c r="V19" s="1">
-        <v>7.264480</v>
+        <v>7.2644799999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>955.981000</v>
+        <v>955.98099999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.403600</v>
+        <v>-90.403599999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>26162.614552</v>
+        <v>26162.614551999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.267393</v>
+        <v>7.2673930000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>963.072000</v>
+        <v>963.072</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.725700</v>
+        <v>-80.725700000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>26173.022573</v>
+        <v>26173.022572999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>7.270284</v>
+        <v>7.2702840000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>968.055000</v>
+        <v>968.05499999999995</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.032100</v>
+        <v>-80.0321</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>26183.554622</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.273210</v>
+        <v>7.2732099999999997</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.889000</v>
+        <v>975.88900000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.633000</v>
+        <v>-87.632999999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>26194.440319</v>
+        <v>26194.440319000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.276233</v>
+        <v>7.2762330000000004</v>
       </c>
       <c r="AQ19" s="1">
-        <v>985.010000</v>
+        <v>985.01</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.433000</v>
+        <v>-102.43300000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>26205.194614</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.279221</v>
+        <v>7.2792209999999997</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.355000</v>
+        <v>996.35500000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.857000</v>
+        <v>-123.857</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>26215.925058</v>
+        <v>26215.925058000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.282201</v>
+        <v>7.2822009999999997</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.940000</v>
+        <v>1005.94</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.534000</v>
+        <v>-142.53399999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>26226.967996</v>
+        <v>26226.967995999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>7.285269</v>
+        <v>7.2852690000000004</v>
       </c>
       <c r="BF19" s="1">
-        <v>1051.040000</v>
+        <v>1051.04</v>
       </c>
       <c r="BG19" s="1">
-        <v>-227.126000</v>
+        <v>-227.126</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>26237.560022</v>
+        <v>26237.560022000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.288211</v>
+        <v>7.2882110000000004</v>
       </c>
       <c r="BK19" s="1">
-        <v>1130.280000</v>
+        <v>1130.28</v>
       </c>
       <c r="BL19" s="1">
-        <v>-362.923000</v>
+        <v>-362.923</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>26248.377768</v>
+        <v>26248.377767999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>7.291216</v>
+        <v>7.2912160000000004</v>
       </c>
       <c r="BP19" s="1">
-        <v>1261.550000</v>
+        <v>1261.55</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-572.708000</v>
+        <v>-572.70799999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>26258.956938</v>
+        <v>26258.956937999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.294155</v>
+        <v>7.2941549999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1409.030000</v>
+        <v>1409.03</v>
       </c>
       <c r="BV19" s="1">
-        <v>-796.355000</v>
+        <v>-796.35500000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>26269.786092</v>
+        <v>26269.786091999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.297163</v>
+        <v>7.2971630000000003</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1570.940000</v>
+        <v>1570.94</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1030.220000</v>
+        <v>-1030.22</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>26282.476764</v>
+        <v>26282.476763999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.300688</v>
+        <v>7.3006880000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1979.480000</v>
+        <v>1979.48</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1573.860000</v>
+        <v>-1573.86</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>26110.490969</v>
+        <v>26110.490968999999</v>
       </c>
       <c r="B20" s="1">
-        <v>7.252914</v>
+        <v>7.2529139999999996</v>
       </c>
       <c r="C20" s="1">
-        <v>903.833000</v>
+        <v>903.83299999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.955000</v>
+        <v>-197.95500000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>26120.911392</v>
+        <v>26120.911392000002</v>
       </c>
       <c r="G20" s="1">
-        <v>7.255809</v>
+        <v>7.2558090000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>920.325000</v>
+        <v>920.32500000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.482000</v>
+        <v>-167.482</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>26131.374542</v>
+        <v>26131.374542000001</v>
       </c>
       <c r="L20" s="1">
-        <v>7.258715</v>
+        <v>7.2587149999999996</v>
       </c>
       <c r="M20" s="1">
-        <v>943.065000</v>
+        <v>943.06500000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.068000</v>
+        <v>-120.068</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>26141.991860</v>
+        <v>26141.991859999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.261664</v>
+        <v>7.2616639999999997</v>
       </c>
       <c r="R20" s="1">
-        <v>949.512000</v>
+        <v>949.51199999999994</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.405000</v>
+        <v>-104.405</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>26152.405864</v>
       </c>
       <c r="V20" s="1">
-        <v>7.264557</v>
+        <v>7.2645569999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>955.928000</v>
+        <v>955.928</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.360300</v>
+        <v>-90.360299999999995</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>26162.908186</v>
+        <v>26162.908186000001</v>
       </c>
       <c r="AA20" s="1">
         <v>7.267474</v>
       </c>
       <c r="AB20" s="1">
-        <v>963.061000</v>
+        <v>963.06100000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.563000</v>
+        <v>-80.563000000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>26173.366795</v>
+        <v>26173.366795000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>7.270380</v>
+        <v>7.2703800000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.992000</v>
+        <v>967.99199999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.001700</v>
+        <v>-80.0017</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>26183.903807</v>
+        <v>26183.903806999999</v>
       </c>
       <c r="AK20" s="1">
         <v>7.273307</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.886000</v>
+        <v>975.88599999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.632300</v>
+        <v>-87.632300000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>26194.801406</v>
+        <v>26194.801405999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>7.276334</v>
+        <v>7.2763340000000003</v>
       </c>
       <c r="AQ20" s="1">
-        <v>985.023000</v>
+        <v>985.02300000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.417000</v>
+        <v>-102.417</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>26205.565088</v>
+        <v>26205.565087999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>7.279324</v>
+        <v>7.2793239999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.357000</v>
+        <v>996.35699999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.850000</v>
+        <v>-123.85</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>26216.642737</v>
+        <v>26216.642736999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.282401</v>
+        <v>7.2824010000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.910000</v>
+        <v>1005.91</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.544000</v>
+        <v>-142.54400000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>26227.328547</v>
+        <v>26227.328547000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.285369</v>
+        <v>7.2853690000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1051.050000</v>
+        <v>1051.05</v>
       </c>
       <c r="BG20" s="1">
-        <v>-227.116000</v>
+        <v>-227.11600000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>26237.935503</v>
+        <v>26237.935503000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.288315</v>
+        <v>7.2883149999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1130.310000</v>
+        <v>1130.31</v>
       </c>
       <c r="BL20" s="1">
-        <v>-362.918000</v>
+        <v>-362.91800000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>26248.798376</v>
+        <v>26248.798375999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>7.291333</v>
+        <v>7.2913329999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1261.570000</v>
+        <v>1261.57</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-572.680000</v>
+        <v>-572.67999999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>26259.389481</v>
+        <v>26259.389480999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.294275</v>
+        <v>7.2942749999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1409.210000</v>
+        <v>1409.21</v>
       </c>
       <c r="BV20" s="1">
-        <v>-796.342000</v>
+        <v>-796.34199999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>26270.517195</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.297366</v>
+        <v>7.2973660000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1571.020000</v>
+        <v>1571.02</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1030.130000</v>
+        <v>-1030.1300000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>26283.247018</v>
+        <v>26283.247017999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>7.300902</v>
+        <v>7.3009019999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>1980.820000</v>
+        <v>1980.82</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1575.310000</v>
+        <v>-1575.31</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>26110.836653</v>
+        <v>26110.836652999998</v>
       </c>
       <c r="B21" s="1">
-        <v>7.253010</v>
+        <v>7.2530099999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>903.613000</v>
+        <v>903.61300000000006</v>
       </c>
       <c r="D21" s="1">
-        <v>-197.918000</v>
+        <v>-197.91800000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>26121.327537</v>
+        <v>26121.327537000001</v>
       </c>
       <c r="G21" s="1">
-        <v>7.255924</v>
+        <v>7.2559240000000003</v>
       </c>
       <c r="H21" s="1">
-        <v>920.398000</v>
+        <v>920.39800000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.758000</v>
+        <v>-167.75800000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>26131.787170</v>
+        <v>26131.78717</v>
       </c>
       <c r="L21" s="1">
-        <v>7.258830</v>
+        <v>7.2588299999999997</v>
       </c>
       <c r="M21" s="1">
-        <v>942.987000</v>
+        <v>942.98699999999997</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.897000</v>
+        <v>-119.89700000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>26142.287972</v>
+        <v>26142.287971999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>7.261747</v>
+        <v>7.2617469999999997</v>
       </c>
       <c r="R21" s="1">
-        <v>949.523000</v>
+        <v>949.52300000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.383000</v>
+        <v>-104.383</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>26152.749590</v>
+        <v>26152.749589999999</v>
       </c>
       <c r="V21" s="1">
         <v>7.264653</v>
       </c>
       <c r="W21" s="1">
-        <v>955.960000</v>
+        <v>955.96</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.444300</v>
+        <v>-90.444299999999998</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>26163.257371</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.267571</v>
+        <v>7.2675710000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>963.067000</v>
+        <v>963.06700000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.641000</v>
+        <v>-80.641000000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>26173.708042</v>
+        <v>26173.708041999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.270474</v>
+        <v>7.2704740000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>968.035000</v>
+        <v>968.03499999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.062700</v>
+        <v>-80.062700000000007</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>26184.254013</v>
+        <v>26184.254013000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.273404</v>
+        <v>7.2734040000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.901000</v>
+        <v>975.90099999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.615900</v>
+        <v>-87.615899999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>26195.525070</v>
+        <v>26195.52507</v>
       </c>
       <c r="AP21" s="1">
         <v>7.276535</v>
       </c>
       <c r="AQ21" s="1">
-        <v>985.013000</v>
+        <v>985.01300000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.397000</v>
+        <v>-102.39700000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>26206.293750</v>
+        <v>26206.293750000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>7.279526</v>
+        <v>7.2795259999999997</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.343000</v>
+        <v>996.34299999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.836000</v>
+        <v>-123.836</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>26217.002834</v>
+        <v>26217.002833999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>7.282501</v>
+        <v>7.2825009999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.930000</v>
+        <v>1005.93</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.540000</v>
+        <v>-142.54</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>26227.690131</v>
+        <v>26227.690130999999</v>
       </c>
       <c r="BE21" s="1">
         <v>7.285469</v>
       </c>
       <c r="BF21" s="1">
-        <v>1051.060000</v>
+        <v>1051.06</v>
       </c>
       <c r="BG21" s="1">
-        <v>-227.127000</v>
+        <v>-227.12700000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>26238.311461</v>
+        <v>26238.311461000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.288420</v>
+        <v>7.2884200000000003</v>
       </c>
       <c r="BK21" s="1">
-        <v>1130.320000</v>
+        <v>1130.32</v>
       </c>
       <c r="BL21" s="1">
-        <v>-362.916000</v>
+        <v>-362.916</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>26249.500742</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.291528</v>
+        <v>7.2915279999999996</v>
       </c>
       <c r="BP21" s="1">
-        <v>1261.540000</v>
+        <v>1261.54</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-572.693000</v>
+        <v>-572.69299999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>26260.117576</v>
+        <v>26260.117576000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>7.294477</v>
+        <v>7.2944769999999997</v>
       </c>
       <c r="BU21" s="1">
-        <v>1409.290000</v>
+        <v>1409.29</v>
       </c>
       <c r="BV21" s="1">
-        <v>-796.471000</v>
+        <v>-796.471</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>26270.628331</v>
       </c>
       <c r="BY21" s="1">
-        <v>7.297397</v>
+        <v>7.2973970000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1570.940000</v>
+        <v>1570.94</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1030.330000</v>
+        <v>-1030.33</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>26283.559001</v>
+        <v>26283.559001000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.300989</v>
+        <v>7.3009890000000004</v>
       </c>
       <c r="CE21" s="1">
-        <v>1980.850000</v>
+        <v>1980.85</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1575.710000</v>
+        <v>-1575.71</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>26111.262222</v>
+        <v>26111.262222000001</v>
       </c>
       <c r="B22" s="1">
-        <v>7.253128</v>
+        <v>7.2531280000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>903.732000</v>
+        <v>903.73199999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.951000</v>
+        <v>-197.95099999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>26121.607809</v>
+        <v>26121.607809000001</v>
       </c>
       <c r="G22" s="1">
-        <v>7.256002</v>
+        <v>7.2560019999999996</v>
       </c>
       <c r="H22" s="1">
-        <v>920.708000</v>
+        <v>920.70799999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.528000</v>
+        <v>-167.52799999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>26132.085265</v>
+        <v>26132.085265000002</v>
       </c>
       <c r="L22" s="1">
-        <v>7.258913</v>
+        <v>7.2589129999999997</v>
       </c>
       <c r="M22" s="1">
-        <v>942.999000</v>
+        <v>942.99900000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.058000</v>
+        <v>-120.05800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>26142.637202</v>
+        <v>26142.637202000002</v>
       </c>
       <c r="Q22" s="1">
         <v>7.261844</v>
       </c>
       <c r="R22" s="1">
-        <v>949.516000</v>
+        <v>949.51599999999996</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.385000</v>
+        <v>-104.38500000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>26153.094310</v>
+        <v>26153.09431</v>
       </c>
       <c r="V22" s="1">
         <v>7.264748</v>
       </c>
       <c r="W22" s="1">
-        <v>955.924000</v>
+        <v>955.92399999999998</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.410500</v>
+        <v>-90.410499999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>26163.608537</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.267669</v>
+        <v>7.2676689999999997</v>
       </c>
       <c r="AB22" s="1">
-        <v>963.017000</v>
+        <v>963.01700000000005</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.666400</v>
+        <v>-80.666399999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>26174.395001</v>
+        <v>26174.395001000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.270665</v>
+        <v>7.2706650000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.967000</v>
+        <v>967.96699999999998</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.045300</v>
+        <v>-80.045299999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>26184.951367</v>
+        <v>26184.951367000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>7.273598</v>
+        <v>7.2735979999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.884000</v>
+        <v>975.88400000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.665200</v>
+        <v>-87.665199999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>26195.905006</v>
+        <v>26195.905006000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.276640</v>
+        <v>7.2766400000000004</v>
       </c>
       <c r="AQ22" s="1">
-        <v>985.026000</v>
+        <v>985.02599999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.419000</v>
+        <v>-102.419</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>26206.758959</v>
+        <v>26206.758958999999</v>
       </c>
       <c r="AU22" s="1">
         <v>7.279655</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.347000</v>
+        <v>996.34699999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.862000</v>
+        <v>-123.86199999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>26217.361937</v>
+        <v>26217.361937000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.282601</v>
+        <v>7.2826009999999997</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.518000</v>
+        <v>-142.518</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>26228.367202</v>
+        <v>26228.367202000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>7.285658</v>
+        <v>7.2856579999999997</v>
       </c>
       <c r="BF22" s="1">
-        <v>1051.050000</v>
+        <v>1051.05</v>
       </c>
       <c r="BG22" s="1">
-        <v>-227.129000</v>
+        <v>-227.12899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>26238.997961</v>
+        <v>26238.997961000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.288611</v>
+        <v>7.2886110000000004</v>
       </c>
       <c r="BK22" s="1">
-        <v>1130.330000</v>
+        <v>1130.33</v>
       </c>
       <c r="BL22" s="1">
-        <v>-362.941000</v>
+        <v>-362.94099999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>26249.632150</v>
+        <v>26249.632150000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.291564</v>
+        <v>7.2915640000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1261.530000</v>
+        <v>1261.53</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-572.722000</v>
+        <v>-572.72199999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>26260.261912</v>
+        <v>26260.261912000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.294517</v>
+        <v>7.2945169999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1409.360000</v>
+        <v>1409.36</v>
       </c>
       <c r="BV22" s="1">
-        <v>-796.562000</v>
+        <v>-796.56200000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>26271.066297</v>
+        <v>26271.066297000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>7.297518</v>
+        <v>7.2975180000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1570.810000</v>
+        <v>1570.81</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1030.190000</v>
+        <v>-1030.19</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>26284.079336</v>
+        <v>26284.079335999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.301133</v>
+        <v>7.3011330000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1980.460000</v>
+        <v>1980.46</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1573.970000</v>
+        <v>-1573.97</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>26111.537502</v>
+        <v>26111.537501999999</v>
       </c>
       <c r="B23" s="1">
-        <v>7.253205</v>
+        <v>7.2532050000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>903.722000</v>
+        <v>903.72199999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.021000</v>
+        <v>-198.02099999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>26121.952526</v>
+        <v>26121.952526000001</v>
       </c>
       <c r="G23" s="1">
-        <v>7.256098</v>
+        <v>7.2560979999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>920.677000</v>
+        <v>920.67700000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.412000</v>
+        <v>-167.41200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>26132.445397</v>
       </c>
       <c r="L23" s="1">
-        <v>7.259013</v>
+        <v>7.2590130000000004</v>
       </c>
       <c r="M23" s="1">
-        <v>942.901000</v>
+        <v>942.90099999999995</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.011000</v>
+        <v>-120.011</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>26142.984851</v>
+        <v>26142.984851000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>7.261940</v>
+        <v>7.2619400000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>949.560000</v>
+        <v>949.56</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.392000</v>
+        <v>-104.392</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>26153.773829</v>
+        <v>26153.773829000002</v>
       </c>
       <c r="V23" s="1">
-        <v>7.264937</v>
+        <v>7.2649369999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>955.909000</v>
+        <v>955.90899999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.421800</v>
+        <v>-90.421800000000005</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>26164.304392</v>
+        <v>26164.304391999998</v>
       </c>
       <c r="AA23" s="1">
         <v>7.267862</v>
       </c>
       <c r="AB23" s="1">
-        <v>963.076000</v>
+        <v>963.07600000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.695900</v>
+        <v>-80.695899999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>26174.738730</v>
+        <v>26174.738730000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>7.270761</v>
+        <v>7.2707610000000003</v>
       </c>
       <c r="AG23" s="1">
-        <v>968.035000</v>
+        <v>968.03499999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.060800</v>
+        <v>-80.0608</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>26185.300063</v>
+        <v>26185.300062999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.273694</v>
+        <v>7.2736939999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.898000</v>
+        <v>975.89800000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.616200</v>
+        <v>-87.616200000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>26196.264606</v>
+        <v>26196.264606000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.276740</v>
+        <v>7.2767400000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>985.034000</v>
+        <v>985.03399999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.426000</v>
+        <v>-102.426</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>26207.055568</v>
@@ -6013,649 +6429,649 @@
         <v>7.279738</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.352000</v>
+        <v>996.35199999999998</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.855000</v>
+        <v>-123.855</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>26218.024624</v>
+        <v>26218.024624000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.282785</v>
+        <v>7.2827849999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.523000</v>
+        <v>-142.523</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>26228.802659</v>
+        <v>26228.802659000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.285779</v>
+        <v>7.2857789999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1051.030000</v>
+        <v>1051.03</v>
       </c>
       <c r="BG23" s="1">
-        <v>-227.127000</v>
+        <v>-227.12700000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>26239.436921</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.288732</v>
+        <v>7.2887320000000004</v>
       </c>
       <c r="BK23" s="1">
-        <v>1130.310000</v>
+        <v>1130.31</v>
       </c>
       <c r="BL23" s="1">
-        <v>-362.897000</v>
+        <v>-362.89699999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>26250.040359</v>
+        <v>26250.040358999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.291678</v>
+        <v>7.2916780000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1261.550000</v>
+        <v>1261.55</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-572.688000</v>
+        <v>-572.68799999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>26260.678551</v>
+        <v>26260.678551000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>7.294633</v>
+        <v>7.2946330000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1409.350000</v>
+        <v>1409.35</v>
       </c>
       <c r="BV23" s="1">
-        <v>-796.723000</v>
+        <v>-796.72299999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>26271.523081</v>
+        <v>26271.523080999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>7.297645</v>
+        <v>7.2976450000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1570.880000</v>
+        <v>1570.88</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1030.240000</v>
+        <v>-1030.24</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>26284.596632</v>
+        <v>26284.596632000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.301277</v>
+        <v>7.3012769999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>1978.860000</v>
+        <v>1978.86</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1574.460000</v>
+        <v>-1574.46</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>26111.875276</v>
+        <v>26111.875275999999</v>
       </c>
       <c r="B24" s="1">
-        <v>7.253299</v>
+        <v>7.2532990000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>903.544000</v>
+        <v>903.54399999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.977000</v>
+        <v>-197.977</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>26122.296718</v>
+        <v>26122.296718000001</v>
       </c>
       <c r="G24" s="1">
-        <v>7.256194</v>
+        <v>7.2561939999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>920.453000</v>
+        <v>920.45299999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.391000</v>
+        <v>-167.39099999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>26133.128848</v>
       </c>
       <c r="L24" s="1">
-        <v>7.259202</v>
+        <v>7.2592020000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>943.096000</v>
+        <v>943.096</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.116000</v>
+        <v>-120.116</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>26143.680769</v>
+        <v>26143.680768999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.262134</v>
+        <v>7.2621339999999996</v>
       </c>
       <c r="R24" s="1">
-        <v>949.544000</v>
+        <v>949.54399999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.415000</v>
+        <v>-104.41500000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>26154.123509</v>
+        <v>26154.123509000001</v>
       </c>
       <c r="V24" s="1">
         <v>7.265034</v>
       </c>
       <c r="W24" s="1">
-        <v>955.916000</v>
+        <v>955.91600000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.405700</v>
+        <v>-90.405699999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>26164.650103</v>
       </c>
       <c r="AA24" s="1">
-        <v>7.267958</v>
+        <v>7.2679580000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>963.041000</v>
+        <v>963.04100000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.613100</v>
+        <v>-80.613100000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>26175.083448</v>
+        <v>26175.083448000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>7.270857</v>
+        <v>7.2708570000000003</v>
       </c>
       <c r="AG24" s="1">
-        <v>968.017000</v>
+        <v>968.01700000000005</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.019500</v>
+        <v>-80.019499999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>26185.647243</v>
+        <v>26185.647242999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>7.273791</v>
+        <v>7.2737910000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.878000</v>
+        <v>975.87800000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.612000</v>
+        <v>-87.611999999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>26196.935228</v>
+        <v>26196.935227999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>7.276926</v>
+        <v>7.2769259999999996</v>
       </c>
       <c r="AQ24" s="1">
-        <v>985.004000</v>
+        <v>985.00400000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.437000</v>
+        <v>-102.437</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>26207.787694</v>
+        <v>26207.787693999999</v>
       </c>
       <c r="AU24" s="1">
         <v>7.279941</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.349000</v>
+        <v>996.34900000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.852000</v>
+        <v>-123.852</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>26218.439247</v>
+        <v>26218.439246999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7.282900</v>
+        <v>7.2828999999999997</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.930000</v>
+        <v>1005.93</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.532000</v>
+        <v>-142.53200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>26229.162258</v>
       </c>
       <c r="BE24" s="1">
-        <v>7.285878</v>
+        <v>7.2858780000000003</v>
       </c>
       <c r="BF24" s="1">
-        <v>1051.040000</v>
+        <v>1051.04</v>
       </c>
       <c r="BG24" s="1">
-        <v>-227.120000</v>
+        <v>-227.12</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>26239.812055</v>
+        <v>26239.812054999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>7.288837</v>
       </c>
       <c r="BK24" s="1">
-        <v>1130.310000</v>
+        <v>1130.31</v>
       </c>
       <c r="BL24" s="1">
-        <v>-362.901000</v>
+        <v>-362.90100000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>26250.436699</v>
+        <v>26250.436699000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.291788</v>
+        <v>7.2917880000000004</v>
       </c>
       <c r="BP24" s="1">
-        <v>1261.540000</v>
+        <v>1261.54</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-572.713000</v>
+        <v>-572.71299999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>26261.101143</v>
       </c>
       <c r="BT24" s="1">
-        <v>7.294750</v>
+        <v>7.2947499999999996</v>
       </c>
       <c r="BU24" s="1">
-        <v>1409.400000</v>
+        <v>1409.4</v>
       </c>
       <c r="BV24" s="1">
-        <v>-796.901000</v>
+        <v>-796.90099999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>26271.970009</v>
+        <v>26271.970009000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>7.297769</v>
+        <v>7.2977689999999997</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1570.910000</v>
+        <v>1570.91</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1030.200000</v>
+        <v>-1030.2</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>26285.112967</v>
+        <v>26285.112967000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>7.301420</v>
+        <v>7.3014200000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>1979.060000</v>
+        <v>1979.06</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1576.000000</v>
+        <v>-1576</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>26112.218045</v>
+        <v>26112.218045000001</v>
       </c>
       <c r="B25" s="1">
-        <v>7.253394</v>
+        <v>7.2533940000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>903.633000</v>
+        <v>903.63300000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.111000</v>
+        <v>-198.11099999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>26122.985661</v>
+        <v>26122.985660999999</v>
       </c>
       <c r="G25" s="1">
-        <v>7.256385</v>
+        <v>7.2563849999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>920.564000</v>
+        <v>920.56399999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.552000</v>
+        <v>-167.55199999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>26133.482031</v>
       </c>
       <c r="L25" s="1">
-        <v>7.259301</v>
+        <v>7.2593009999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>943.026000</v>
+        <v>943.02599999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.808000</v>
+        <v>-119.80800000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>26144.029922</v>
+        <v>26144.029922000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.262231</v>
+        <v>7.2622309999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>949.502000</v>
+        <v>949.50199999999995</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.433000</v>
+        <v>-104.43300000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>26154.466280</v>
+        <v>26154.466280000001</v>
       </c>
       <c r="V25" s="1">
-        <v>7.265130</v>
+        <v>7.2651300000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>955.964000</v>
+        <v>955.96400000000006</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.439700</v>
+        <v>-90.439700000000002</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>26165.002263</v>
+        <v>26165.002262999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>7.268056</v>
+        <v>7.2680559999999996</v>
       </c>
       <c r="AB25" s="1">
-        <v>963.081000</v>
+        <v>963.08100000000002</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.591200</v>
+        <v>-80.591200000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>26175.726761</v>
+        <v>26175.726761000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>7.271035</v>
+        <v>7.2710350000000004</v>
       </c>
       <c r="AG25" s="1">
-        <v>968.025000</v>
+        <v>968.02499999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.017000</v>
+        <v>-80.016999999999996</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>26186.298490</v>
+        <v>26186.298490000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.273972</v>
+        <v>7.2739719999999997</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.863000</v>
+        <v>975.86300000000006</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.630900</v>
+        <v>-87.630899999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>26197.344395</v>
       </c>
       <c r="AP25" s="1">
-        <v>7.277040</v>
+        <v>7.2770400000000004</v>
       </c>
       <c r="AQ25" s="1">
-        <v>985.018000</v>
+        <v>985.01800000000003</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.436000</v>
+        <v>-102.43600000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>26208.171101</v>
       </c>
       <c r="AU25" s="1">
-        <v>7.280048</v>
+        <v>7.2800479999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.348000</v>
+        <v>996.34799999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.851000</v>
+        <v>-123.851</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>26218.824175</v>
+        <v>26218.824175000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>7.283007</v>
+        <v>7.2830069999999996</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.910000</v>
+        <v>1005.91</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.526000</v>
+        <v>-142.52600000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>26229.521360</v>
+        <v>26229.521359999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>7.285978</v>
+        <v>7.2859780000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1051.050000</v>
+        <v>1051.05</v>
       </c>
       <c r="BG25" s="1">
-        <v>-227.130000</v>
+        <v>-227.13</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>26240.186867</v>
       </c>
       <c r="BJ25" s="1">
-        <v>7.288941</v>
+        <v>7.2889410000000003</v>
       </c>
       <c r="BK25" s="1">
-        <v>1130.300000</v>
+        <v>1130.3</v>
       </c>
       <c r="BL25" s="1">
-        <v>-362.932000</v>
+        <v>-362.93200000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>26250.858796</v>
       </c>
       <c r="BO25" s="1">
-        <v>7.291905</v>
+        <v>7.2919049999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1261.520000</v>
+        <v>1261.52</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-572.694000</v>
+        <v>-572.69399999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>26261.523276</v>
       </c>
       <c r="BT25" s="1">
-        <v>7.294868</v>
+        <v>7.2948680000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1409.340000</v>
+        <v>1409.34</v>
       </c>
       <c r="BV25" s="1">
-        <v>-797.015000</v>
+        <v>-797.01499999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>26272.425800</v>
+        <v>26272.425800000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>7.297896</v>
+        <v>7.2978959999999997</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1570.760000</v>
+        <v>1570.76</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1030.180000</v>
+        <v>-1030.18</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>26285.632807</v>
+        <v>26285.632807000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>7.301565</v>
+        <v>7.3015650000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1978.810000</v>
+        <v>1978.81</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1575.770000</v>
+        <v>-1575.77</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>26112.899516</v>
+        <v>26112.899516000001</v>
       </c>
       <c r="B26" s="1">
-        <v>7.253583</v>
+        <v>7.2535829999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>903.602000</v>
+        <v>903.60199999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.993000</v>
+        <v>-197.99299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>26123.330381</v>
@@ -6664,240 +7080,241 @@
         <v>7.256481</v>
       </c>
       <c r="H26" s="1">
-        <v>920.727000</v>
+        <v>920.72699999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.688000</v>
+        <v>-167.68799999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>26133.827215</v>
+        <v>26133.827215000001</v>
       </c>
       <c r="L26" s="1">
-        <v>7.259396</v>
+        <v>7.2593959999999997</v>
       </c>
       <c r="M26" s="1">
-        <v>943.013000</v>
+        <v>943.01300000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.856000</v>
+        <v>-119.85599999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>26144.367233</v>
+        <v>26144.367233000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>7.262324</v>
+        <v>7.2623239999999996</v>
       </c>
       <c r="R26" s="1">
-        <v>949.553000</v>
+        <v>949.553</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.426000</v>
+        <v>-104.426</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>26155.115507</v>
+        <v>26155.115506999999</v>
       </c>
       <c r="V26" s="1">
-        <v>7.265310</v>
+        <v>7.2653100000000004</v>
       </c>
       <c r="W26" s="1">
-        <v>955.939000</v>
+        <v>955.93899999999996</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.398900</v>
+        <v>-90.398899999999998</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>26165.648582</v>
+        <v>26165.648582000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.268236</v>
+        <v>7.2682359999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>963.093000</v>
+        <v>963.09299999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.574400</v>
+        <v>-80.574399999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>26176.111656</v>
+        <v>26176.111656000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.271142</v>
+        <v>7.2711420000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>968.001000</v>
+        <v>968.00099999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.021600</v>
+        <v>-80.021600000000007</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>26186.693305</v>
+        <v>26186.693305000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.274081</v>
+        <v>7.2740809999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.893000</v>
+        <v>975.89300000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.623800</v>
+        <v>-87.623800000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>26197.731302</v>
       </c>
       <c r="AP26" s="1">
-        <v>7.277148</v>
+        <v>7.2771480000000004</v>
       </c>
       <c r="AQ26" s="1">
-        <v>985.022000</v>
+        <v>985.02200000000005</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.421000</v>
+        <v>-102.42100000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>26208.533181</v>
+        <v>26208.533180999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>7.280148</v>
+        <v>7.2801479999999996</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.322000</v>
+        <v>996.322</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.840000</v>
+        <v>-123.84</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>26219.184238</v>
+        <v>26219.184238000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.283107</v>
+        <v>7.2831070000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.520000</v>
+        <v>-142.52000000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>26229.938992</v>
+        <v>26229.938991999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>7.286094</v>
+        <v>7.2860940000000003</v>
       </c>
       <c r="BF26" s="1">
-        <v>1051.040000</v>
+        <v>1051.04</v>
       </c>
       <c r="BG26" s="1">
-        <v>-227.144000</v>
+        <v>-227.14400000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>26240.604962</v>
+        <v>26240.604962000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.289057</v>
+        <v>7.2890569999999997</v>
       </c>
       <c r="BK26" s="1">
-        <v>1130.310000</v>
+        <v>1130.31</v>
       </c>
       <c r="BL26" s="1">
-        <v>-362.941000</v>
+        <v>-362.94099999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>26251.256548</v>
+        <v>26251.256548000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.292016</v>
+        <v>7.2920160000000003</v>
       </c>
       <c r="BP26" s="1">
-        <v>1261.580000</v>
+        <v>1261.58</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-572.702000</v>
+        <v>-572.702</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>26261.930453</v>
+        <v>26261.930453000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>7.294981</v>
+        <v>7.2949809999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1409.130000</v>
+        <v>1409.13</v>
       </c>
       <c r="BV26" s="1">
-        <v>-797.003000</v>
+        <v>-797.00300000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>26272.875671</v>
+        <v>26272.875671000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.298021</v>
+        <v>7.2980210000000003</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1570.900000</v>
+        <v>1570.9</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1030.220000</v>
+        <v>-1030.22</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>26286.185848</v>
+        <v>26286.185848000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>7.301718</v>
+        <v>7.3017180000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>1979.000000</v>
+        <v>1979</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1574.100000</v>
+        <v>-1574.1</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>